--- a/schemas/ArrestReport_iepd/artifacts/Arrest_MappingSpreadsheet_v3_2025_04_24.xlsx
+++ b/schemas/ArrestReport_iepd/artifacts/Arrest_MappingSpreadsheet_v3_2025_04_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddi/Desktop/JTMP-Data-Exchange-Specs/schemas/ArrestReport_iepd/artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{E7E64ADA-F409-E944-B6E2-03219BED49C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A1633F-D923-4AF1-AEED-1D83081E31C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF6331-EAC5-E34A-B93C-8E091C8C09F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="781" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" state="hidden" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4942" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="2094">
   <si>
     <t xml:space="preserve">Template last updated: </t>
   </si>
@@ -8405,6 +8405,24 @@
   </si>
   <si>
     <t xml:space="preserve">Literal </t>
+  </si>
+  <si>
+    <t>involvement</t>
+  </si>
+  <si>
+    <t>DefendantType</t>
+  </si>
+  <si>
+    <t>Involvement of person in associated event</t>
+  </si>
+  <si>
+    <t>Type of defendant</t>
+  </si>
+  <si>
+    <t>/j:Arrest/j:ArrestSubject/j:InvolvementText</t>
+  </si>
+  <si>
+    <t>j:InvolvementText</t>
   </si>
 </sst>
 </file>
@@ -9280,6 +9298,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9297,9 +9318,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -10992,14 +11010,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="51.5" style="17" customWidth="1"/>
     <col min="3" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -11021,7 +11039,7 @@
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:4" ht="32.1">
+    <row r="5" spans="1:4" ht="32">
       <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
@@ -11035,7 +11053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
@@ -11049,7 +11067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="30" t="s">
         <v>11</v>
       </c>
@@ -11063,7 +11081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="30" t="s">
         <v>15</v>
       </c>
@@ -11077,7 +11095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="30" t="s">
         <v>18</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32.1">
+    <row r="10" spans="1:4" ht="32">
       <c r="A10" s="30" t="s">
         <v>21</v>
       </c>
@@ -11105,7 +11123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.95">
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
@@ -11119,7 +11137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.95">
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="30" t="s">
         <v>27</v>
       </c>
@@ -11133,7 +11151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.95">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="30" t="s">
         <v>31</v>
       </c>
@@ -11155,7 +11173,7 @@
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
     </row>
-    <row r="16" spans="1:4" ht="15.95">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="28" t="s">
         <v>34</v>
       </c>
@@ -11164,7 +11182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32.1">
+    <row r="18" spans="1:4" ht="32">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -11220,7 +11238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32.1">
+    <row r="22" spans="1:4" ht="32">
       <c r="A22" s="31" t="s">
         <v>49</v>
       </c>
@@ -11234,7 +11252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32.1">
+    <row r="23" spans="1:4" ht="32">
       <c r="A23" s="31" t="s">
         <v>52</v>
       </c>
@@ -11318,7 +11336,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.95">
+    <row r="31" spans="1:4" ht="16">
       <c r="A31" s="29" t="s">
         <v>75</v>
       </c>
@@ -11326,7 +11344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="80.099999999999994">
+    <row r="32" spans="1:4" ht="80">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -11350,7 +11368,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="32.1">
+    <row r="35" spans="1:2" ht="32">
       <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
@@ -11366,7 +11384,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="32.1">
+    <row r="37" spans="1:2" ht="32">
       <c r="A37" s="5" t="s">
         <v>86</v>
       </c>
@@ -11374,7 +11392,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="32.1">
+    <row r="38" spans="1:2" ht="32">
       <c r="A38" s="5" t="s">
         <v>88</v>
       </c>
@@ -11382,7 +11400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="111.95">
+    <row r="39" spans="1:2" ht="112">
       <c r="A39" s="30" t="s">
         <v>90</v>
       </c>
@@ -11390,7 +11408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="80.099999999999994">
+    <row r="40" spans="1:2" ht="80">
       <c r="A40" s="30" t="s">
         <v>92</v>
       </c>
@@ -11417,25 +11435,25 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="17" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="40.42578125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="17"/>
+    <col min="7" max="7" width="20.5" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="17" customWidth="1"/>
+    <col min="10" max="10" width="32.83203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="40.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="57" customFormat="1" ht="32.1">
+    <row r="1" spans="1:13" s="57" customFormat="1" ht="32">
       <c r="A1" s="60" t="s">
         <v>2075</v>
       </c>
@@ -11505,31 +11523,31 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="58" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="58" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="6" width="29.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="58" customWidth="1"/>
+    <col min="5" max="6" width="29.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="58" customWidth="1"/>
     <col min="8" max="8" width="13" style="58" customWidth="1"/>
-    <col min="9" max="9" width="55.42578125" style="58" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" style="58" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="59" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="55.5" style="58" customWidth="1"/>
+    <col min="10" max="10" width="35.5" style="58" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="35.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.5" style="59" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="56" customFormat="1" ht="32.1">
+    <row r="1" spans="1:14" s="56" customFormat="1" ht="32">
       <c r="A1" s="78" t="s">
         <v>2081</v>
       </c>
@@ -11608,21 +11626,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="20.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.1">
+    <row r="1" spans="1:11" ht="32">
       <c r="A1" s="10" t="s">
         <v>2085</v>
       </c>
@@ -11680,13 +11698,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="76" style="17" customWidth="1"/>
-    <col min="4" max="5" width="29.42578125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="16"/>
+    <col min="4" max="5" width="29.5" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -11703,7 +11721,7 @@
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
     </row>
-    <row r="5" spans="1:3" ht="15.95">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69" t="s">
         <v>96</v>
@@ -11712,7 +11730,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.95">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="68"/>
       <c r="B6" s="69" t="s">
         <v>98</v>
@@ -11721,7 +11739,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.95">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="68"/>
       <c r="B7" s="69" t="s">
         <v>100</v>
@@ -11730,7 +11748,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.95">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="68"/>
       <c r="B8" s="69" t="s">
         <v>4</v>
@@ -11739,7 +11757,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.95">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="68"/>
       <c r="B9" s="69" t="s">
         <v>103</v>
@@ -11748,7 +11766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32.1">
+    <row r="10" spans="1:3" ht="32">
       <c r="A10" s="68"/>
       <c r="B10" s="69" t="s">
         <v>105</v>
@@ -11757,7 +11775,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.95">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="68"/>
       <c r="B11" s="69" t="s">
         <v>107</v>
@@ -11773,7 +11791,7 @@
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
     </row>
-    <row r="13" spans="1:3" ht="15.95">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="68"/>
       <c r="B13" s="69" t="s">
         <v>110</v>
@@ -11789,7 +11807,7 @@
       </c>
       <c r="C14" s="33"/>
     </row>
-    <row r="15" spans="1:3" ht="15.95">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="68"/>
       <c r="B15" s="70" t="s">
         <v>113</v>
@@ -11798,7 +11816,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32.1">
+    <row r="16" spans="1:3" ht="32">
       <c r="A16" s="68"/>
       <c r="B16" s="70" t="s">
         <v>115</v>
@@ -11807,7 +11825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.95">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="68"/>
       <c r="B17" s="70" t="s">
         <v>117</v>
@@ -11816,7 +11834,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="32.1">
+    <row r="18" spans="1:3" ht="32">
       <c r="A18" s="68"/>
       <c r="B18" s="70" t="s">
         <v>119</v>
@@ -11825,7 +11843,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.95">
+    <row r="19" spans="1:3" ht="16">
       <c r="A19" s="68"/>
       <c r="B19" s="70" t="s">
         <v>121</v>
@@ -11834,7 +11852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.95">
+    <row r="20" spans="1:3" ht="16">
       <c r="A20" s="68"/>
       <c r="B20" s="70" t="s">
         <v>71</v>
@@ -11843,7 +11861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.95">
+    <row r="21" spans="1:3" ht="16">
       <c r="A21" s="68"/>
       <c r="B21" s="70" t="s">
         <v>124</v>
@@ -11859,7 +11877,7 @@
       </c>
       <c r="C22" s="33"/>
     </row>
-    <row r="23" spans="1:3" ht="15.95">
+    <row r="23" spans="1:3" ht="16">
       <c r="A23" s="68"/>
       <c r="B23" s="69" t="s">
         <v>4</v>
@@ -11868,7 +11886,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.95">
+    <row r="24" spans="1:3" ht="16">
       <c r="A24" s="68"/>
       <c r="B24" s="69" t="s">
         <v>128</v>
@@ -11877,7 +11895,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.95">
+    <row r="25" spans="1:3" ht="16">
       <c r="A25" s="68"/>
       <c r="B25" s="69" t="s">
         <v>107</v>
@@ -11893,7 +11911,7 @@
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="1:3" ht="15.95">
+    <row r="27" spans="1:3" ht="16">
       <c r="A27" s="68"/>
       <c r="B27" s="69" t="s">
         <v>132</v>
@@ -11902,7 +11920,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.95">
+    <row r="28" spans="1:3" ht="16">
       <c r="A28" s="68"/>
       <c r="B28" s="69" t="s">
         <v>4</v>
@@ -11911,7 +11929,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32.1">
+    <row r="29" spans="1:3" ht="32">
       <c r="A29" s="68"/>
       <c r="B29" s="69" t="s">
         <v>10</v>
@@ -11920,7 +11938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.95">
+    <row r="30" spans="1:3" ht="16">
       <c r="A30" s="68"/>
       <c r="B30" s="69" t="s">
         <v>103</v>
@@ -11929,7 +11947,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="32.1">
+    <row r="31" spans="1:3" ht="32">
       <c r="A31" s="68"/>
       <c r="B31" s="69" t="s">
         <v>105</v>
@@ -11938,7 +11956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.95">
+    <row r="32" spans="1:3" ht="16">
       <c r="A32" s="68"/>
       <c r="B32" s="69" t="s">
         <v>107</v>
@@ -11965,7 +11983,7 @@
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
     </row>
-    <row r="37" spans="1:3" ht="15.95">
+    <row r="37" spans="1:3" ht="16">
       <c r="A37" s="39"/>
       <c r="B37" s="32" t="s">
         <v>141</v>
@@ -11974,7 +11992,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.95">
+    <row r="38" spans="1:3" ht="16">
       <c r="A38" s="39"/>
       <c r="B38" s="32" t="s">
         <v>143</v>
@@ -11983,7 +12001,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.95">
+    <row r="39" spans="1:3" ht="16">
       <c r="A39" s="39"/>
       <c r="B39" s="32" t="s">
         <v>145</v>
@@ -11992,7 +12010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.95">
+    <row r="40" spans="1:3" ht="16">
       <c r="A40" s="39"/>
       <c r="B40" s="32" t="s">
         <v>147</v>
@@ -12008,7 +12026,7 @@
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
     </row>
-    <row r="42" spans="1:3" ht="15.95">
+    <row r="42" spans="1:3" ht="16">
       <c r="A42" s="40"/>
       <c r="B42" s="33" t="s">
         <v>149</v>
@@ -12024,7 +12042,7 @@
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
     </row>
-    <row r="44" spans="1:3" ht="15.95">
+    <row r="44" spans="1:3" ht="16">
       <c r="A44" s="42"/>
       <c r="B44" s="32" t="s">
         <v>141</v>
@@ -12033,7 +12051,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.95">
+    <row r="45" spans="1:3" ht="16">
       <c r="A45" s="42"/>
       <c r="B45" s="32" t="s">
         <v>143</v>
@@ -12042,7 +12060,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="32.1">
+    <row r="46" spans="1:3" ht="32">
       <c r="A46" s="42"/>
       <c r="B46" s="32" t="s">
         <v>152</v>
@@ -12051,7 +12069,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.95">
+    <row r="47" spans="1:3" ht="16">
       <c r="A47" s="42"/>
       <c r="B47" s="32" t="s">
         <v>147</v>
@@ -12069,14 +12087,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.95">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="42"/>
       <c r="B49" s="32" t="s">
         <v>156</v>
       </c>
       <c r="C49" s="43"/>
     </row>
-    <row r="50" spans="1:3" ht="32.1">
+    <row r="50" spans="1:3" ht="32">
       <c r="A50" s="42"/>
       <c r="B50" s="49" t="s">
         <v>157</v>
@@ -12085,7 +12103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.95">
+    <row r="51" spans="1:3" ht="16">
       <c r="A51" s="42"/>
       <c r="B51" s="49" t="s">
         <v>159</v>
@@ -12094,7 +12112,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.95">
+    <row r="52" spans="1:3" ht="16">
       <c r="A52" s="42"/>
       <c r="B52" s="49" t="s">
         <v>161</v>
@@ -12103,7 +12121,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="32.1">
+    <row r="53" spans="1:3" ht="32">
       <c r="A53" s="42"/>
       <c r="B53" s="32" t="s">
         <v>163</v>
@@ -12112,7 +12130,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.95">
+    <row r="54" spans="1:3" ht="16">
       <c r="A54" s="42"/>
       <c r="B54" s="32" t="s">
         <v>165</v>
@@ -12121,7 +12139,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.95">
+    <row r="55" spans="1:3" ht="16">
       <c r="A55" s="42"/>
       <c r="B55" s="32" t="s">
         <v>167</v>
@@ -12137,7 +12155,7 @@
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
     </row>
-    <row r="57" spans="1:3" ht="15.95">
+    <row r="57" spans="1:3" ht="16">
       <c r="A57" s="8"/>
       <c r="B57" s="7" t="s">
         <v>170</v>
@@ -12146,7 +12164,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="32.1">
+    <row r="58" spans="1:3" ht="32">
       <c r="A58" s="8"/>
       <c r="B58" s="7" t="s">
         <v>172</v>
@@ -12155,7 +12173,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="32.1">
+    <row r="59" spans="1:3" ht="32">
       <c r="A59" s="8"/>
       <c r="B59" s="7" t="s">
         <v>174</v>
@@ -12164,7 +12182,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="32.1">
+    <row r="60" spans="1:3" ht="32">
       <c r="A60" s="8"/>
       <c r="B60" s="7" t="s">
         <v>176</v>
@@ -12173,7 +12191,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="32.1">
+    <row r="61" spans="1:3" ht="32">
       <c r="A61" s="8"/>
       <c r="B61" s="7" t="s">
         <v>178</v>
@@ -12211,7 +12229,7 @@
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
     </row>
-    <row r="67" spans="1:3" ht="15.95">
+    <row r="67" spans="1:3" ht="16">
       <c r="A67" s="39"/>
       <c r="B67" s="32" t="s">
         <v>181</v>
@@ -12220,7 +12238,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.95">
+    <row r="68" spans="1:3" ht="16">
       <c r="A68" s="39"/>
       <c r="B68" s="32" t="s">
         <v>183</v>
@@ -12229,7 +12247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.95">
+    <row r="69" spans="1:3" ht="16">
       <c r="A69" s="39"/>
       <c r="B69" s="32" t="s">
         <v>185</v>
@@ -12238,7 +12256,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.95">
+    <row r="70" spans="1:3" ht="16">
       <c r="A70" s="39"/>
       <c r="B70" s="32" t="s">
         <v>147</v>
@@ -12254,7 +12272,7 @@
       <c r="B71" s="50"/>
       <c r="C71" s="50"/>
     </row>
-    <row r="72" spans="1:3" ht="15.95">
+    <row r="72" spans="1:3" ht="16">
       <c r="A72" s="40"/>
       <c r="B72" s="33" t="s">
         <v>149</v>
@@ -12270,7 +12288,7 @@
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
     </row>
-    <row r="74" spans="1:3" ht="15.95">
+    <row r="74" spans="1:3" ht="16">
       <c r="A74" s="40"/>
       <c r="B74" s="32" t="s">
         <v>181</v>
@@ -12279,7 +12297,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.95">
+    <row r="75" spans="1:3" ht="16">
       <c r="A75" s="40"/>
       <c r="B75" s="32" t="s">
         <v>183</v>
@@ -12288,7 +12306,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.95">
+    <row r="76" spans="1:3" ht="16">
       <c r="A76" s="40"/>
       <c r="B76" s="32" t="s">
         <v>147</v>
@@ -12297,7 +12315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.95">
+    <row r="77" spans="1:3" ht="16">
       <c r="A77" s="40"/>
       <c r="B77" s="32" t="s">
         <v>185</v>
@@ -12306,14 +12324,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.95">
+    <row r="78" spans="1:3" ht="16">
       <c r="A78" s="40"/>
       <c r="B78" s="32" t="s">
         <v>188</v>
       </c>
       <c r="C78" s="32"/>
     </row>
-    <row r="79" spans="1:3" ht="15.95">
+    <row r="79" spans="1:3" ht="16">
       <c r="A79" s="40"/>
       <c r="B79" s="49" t="s">
         <v>189</v>
@@ -12322,7 +12340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.95">
+    <row r="80" spans="1:3" ht="16">
       <c r="A80" s="40"/>
       <c r="B80" s="49" t="s">
         <v>191</v>
@@ -12331,7 +12349,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="32.1">
+    <row r="81" spans="1:3" ht="32">
       <c r="A81" s="40"/>
       <c r="B81" s="49" t="s">
         <v>193</v>
@@ -12340,7 +12358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.95">
+    <row r="82" spans="1:3" ht="16">
       <c r="A82" s="40"/>
       <c r="B82" s="49" t="s">
         <v>195</v>
@@ -12349,7 +12367,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.95">
+    <row r="83" spans="1:3" ht="16">
       <c r="A83" s="40"/>
       <c r="B83" s="49" t="s">
         <v>197</v>
@@ -12358,7 +12376,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.95">
+    <row r="84" spans="1:3" ht="16">
       <c r="A84" s="40"/>
       <c r="B84" s="49" t="s">
         <v>199</v>
@@ -12367,7 +12385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.95">
+    <row r="85" spans="1:3" ht="16">
       <c r="A85" s="40"/>
       <c r="B85" s="49" t="s">
         <v>201</v>
@@ -12376,7 +12394,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="32.1">
+    <row r="86" spans="1:3" ht="32">
       <c r="A86" s="40"/>
       <c r="B86" s="49" t="s">
         <v>203</v>
@@ -12385,7 +12403,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="32.1">
+    <row r="87" spans="1:3" ht="32">
       <c r="A87" s="40"/>
       <c r="B87" s="49" t="s">
         <v>205</v>
@@ -12394,7 +12412,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="32.1">
+    <row r="88" spans="1:3" ht="32">
       <c r="A88" s="40"/>
       <c r="B88" s="32" t="s">
         <v>207</v>
@@ -12403,7 +12421,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="63.95">
+    <row r="89" spans="1:3" ht="64">
       <c r="A89" s="40"/>
       <c r="B89" s="32" t="s">
         <v>209</v>
@@ -12412,7 +12430,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="63.95" hidden="1">
+    <row r="90" spans="1:3" ht="64" hidden="1">
       <c r="A90" s="40"/>
       <c r="B90" s="32" t="s">
         <v>211</v>
@@ -12428,7 +12446,7 @@
       <c r="B91" s="52"/>
       <c r="C91" s="52"/>
     </row>
-    <row r="92" spans="1:3" ht="15.95">
+    <row r="92" spans="1:3" ht="16">
       <c r="A92" s="8"/>
       <c r="B92" s="7" t="s">
         <v>170</v>
@@ -12437,7 +12455,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="32.1">
+    <row r="93" spans="1:3" ht="32">
       <c r="A93" s="8"/>
       <c r="B93" s="7" t="s">
         <v>214</v>
@@ -12446,7 +12464,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="32.1">
+    <row r="94" spans="1:3" ht="32">
       <c r="A94" s="8"/>
       <c r="B94" s="7" t="s">
         <v>216</v>
@@ -12484,7 +12502,7 @@
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
     </row>
-    <row r="100" spans="1:3" ht="15.95">
+    <row r="100" spans="1:3" ht="16">
       <c r="A100" s="39"/>
       <c r="B100" s="32" t="s">
         <v>219</v>
@@ -12493,7 +12511,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.95">
+    <row r="101" spans="1:3" ht="16">
       <c r="A101" s="39"/>
       <c r="B101" s="32" t="s">
         <v>183</v>
@@ -12502,7 +12520,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.95">
+    <row r="102" spans="1:3" ht="16">
       <c r="A102" s="39"/>
       <c r="B102" s="32" t="s">
         <v>221</v>
@@ -12511,7 +12529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.95">
+    <row r="103" spans="1:3" ht="16">
       <c r="A103" s="39"/>
       <c r="B103" s="32" t="s">
         <v>143</v>
@@ -12520,7 +12538,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.95">
+    <row r="104" spans="1:3" ht="16">
       <c r="A104" s="39"/>
       <c r="B104" s="32" t="s">
         <v>223</v>
@@ -12529,7 +12547,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="32.1">
+    <row r="105" spans="1:3" ht="32">
       <c r="A105" s="39"/>
       <c r="B105" s="32" t="s">
         <v>225</v>
@@ -12545,7 +12563,7 @@
       <c r="B106" s="50"/>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" spans="1:3" ht="15.95">
+    <row r="107" spans="1:3" ht="16">
       <c r="A107" s="40"/>
       <c r="B107" s="33" t="s">
         <v>149</v>
@@ -12561,7 +12579,7 @@
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
     </row>
-    <row r="109" spans="1:3" ht="15.95">
+    <row r="109" spans="1:3" ht="16">
       <c r="A109" s="39"/>
       <c r="B109" s="32" t="s">
         <v>219</v>
@@ -12570,7 +12588,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.95">
+    <row r="110" spans="1:3" ht="16">
       <c r="A110" s="39"/>
       <c r="B110" s="32" t="s">
         <v>183</v>
@@ -12579,7 +12597,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.95">
+    <row r="111" spans="1:3" ht="16">
       <c r="A111" s="39"/>
       <c r="B111" s="32" t="s">
         <v>221</v>
@@ -12588,7 +12606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:3" customFormat="1" ht="15.95">
+    <row r="112" spans="1:3" customFormat="1" ht="16">
       <c r="A112" s="39"/>
       <c r="B112" s="32" t="s">
         <v>143</v>
@@ -12597,7 +12615,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:3" customFormat="1" ht="15.95">
+    <row r="113" spans="1:3" customFormat="1" ht="16">
       <c r="A113" s="39"/>
       <c r="B113" s="32" t="s">
         <v>223</v>
@@ -12606,7 +12624,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.95">
+    <row r="114" spans="1:3" ht="16">
       <c r="A114" s="39"/>
       <c r="B114" s="49" t="s">
         <v>227</v>
@@ -12615,7 +12633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.95">
+    <row r="115" spans="1:3" ht="16">
       <c r="A115" s="39"/>
       <c r="B115" s="32" t="s">
         <v>225</v>
@@ -12624,7 +12642,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.95">
+    <row r="116" spans="1:3" ht="16">
       <c r="A116" s="39"/>
       <c r="B116" s="49" t="s">
         <v>230</v>
@@ -12633,7 +12651,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.95">
+    <row r="117" spans="1:3" ht="16">
       <c r="A117" s="39"/>
       <c r="B117" s="32" t="s">
         <v>147</v>
@@ -12642,7 +12660,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.95">
+    <row r="118" spans="1:3" ht="16">
       <c r="A118" s="39"/>
       <c r="B118" s="32" t="s">
         <v>233</v>
@@ -12686,7 +12704,7 @@
       <c r="B125" s="38"/>
       <c r="C125" s="38"/>
     </row>
-    <row r="126" spans="1:3" ht="15.95">
+    <row r="126" spans="1:3" ht="16">
       <c r="A126" s="39"/>
       <c r="B126" s="32" t="s">
         <v>237</v>
@@ -12695,7 +12713,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.95">
+    <row r="127" spans="1:3" ht="16">
       <c r="A127" s="39"/>
       <c r="B127" s="32" t="s">
         <v>183</v>
@@ -12704,7 +12722,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.95">
+    <row r="128" spans="1:3" ht="16">
       <c r="A128" s="39"/>
       <c r="B128" s="32" t="s">
         <v>238</v>
@@ -12713,7 +12731,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.95">
+    <row r="129" spans="1:3" ht="16">
       <c r="A129" s="39"/>
       <c r="B129" s="32" t="s">
         <v>147</v>
@@ -12729,7 +12747,7 @@
       <c r="B130" s="50"/>
       <c r="C130" s="50"/>
     </row>
-    <row r="131" spans="1:3" ht="15.95">
+    <row r="131" spans="1:3" ht="16">
       <c r="A131" s="40"/>
       <c r="B131" s="33" t="s">
         <v>149</v>
@@ -12745,7 +12763,7 @@
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
     </row>
-    <row r="133" spans="1:3" ht="15.95">
+    <row r="133" spans="1:3" ht="16">
       <c r="A133" s="39"/>
       <c r="B133" s="32" t="s">
         <v>237</v>
@@ -12754,7 +12772,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.95">
+    <row r="134" spans="1:3" ht="16">
       <c r="A134" s="39"/>
       <c r="B134" s="32" t="s">
         <v>183</v>
@@ -12763,7 +12781,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.95">
+    <row r="135" spans="1:3" ht="16">
       <c r="A135" s="40"/>
       <c r="B135" s="32" t="s">
         <v>238</v>
@@ -12772,7 +12790,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.95">
+    <row r="136" spans="1:3" ht="16">
       <c r="A136" s="40"/>
       <c r="B136" s="32" t="s">
         <v>147</v>
@@ -12781,7 +12799,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="32.1">
+    <row r="137" spans="1:3" ht="32">
       <c r="A137" s="40"/>
       <c r="B137" s="32" t="s">
         <v>242</v>
@@ -12790,7 +12808,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.95">
+    <row r="138" spans="1:3" ht="16">
       <c r="A138" s="40"/>
       <c r="B138" s="49" t="s">
         <v>244</v>
@@ -12799,7 +12817,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.95">
+    <row r="139" spans="1:3" ht="16">
       <c r="A139" s="40"/>
       <c r="B139" s="49" t="s">
         <v>246</v>
@@ -12808,7 +12826,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.95">
+    <row r="140" spans="1:3" ht="16">
       <c r="A140" s="40"/>
       <c r="B140" s="49" t="s">
         <v>248</v>
@@ -12817,7 +12835,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.95">
+    <row r="141" spans="1:3" ht="16">
       <c r="A141" s="40"/>
       <c r="B141" s="49" t="s">
         <v>250</v>
@@ -12826,7 +12844,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.95">
+    <row r="142" spans="1:3" ht="16">
       <c r="A142" s="40"/>
       <c r="B142" s="49" t="s">
         <v>252</v>
@@ -12835,7 +12853,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.95">
+    <row r="143" spans="1:3" ht="16">
       <c r="A143" s="40"/>
       <c r="B143" s="49" t="s">
         <v>254</v>
@@ -12844,7 +12862,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.95">
+    <row r="144" spans="1:3" ht="16">
       <c r="A144" s="40"/>
       <c r="B144" s="49" t="s">
         <v>256</v>
@@ -12853,7 +12871,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.95">
+    <row r="145" spans="1:3" ht="16">
       <c r="A145" s="40"/>
       <c r="B145" s="49" t="s">
         <v>258</v>
@@ -12862,7 +12880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.95">
+    <row r="146" spans="1:3" ht="16">
       <c r="A146" s="40"/>
       <c r="B146" s="49" t="s">
         <v>260</v>
@@ -12871,7 +12889,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.95">
+    <row r="147" spans="1:3" ht="16">
       <c r="A147" s="40"/>
       <c r="B147" s="49" t="s">
         <v>262</v>
@@ -12880,7 +12898,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.95">
+    <row r="148" spans="1:3" ht="16">
       <c r="A148" s="40"/>
       <c r="B148" s="49" t="s">
         <v>264</v>
@@ -12889,7 +12907,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.95">
+    <row r="149" spans="1:3" ht="16">
       <c r="A149" s="40"/>
       <c r="B149" s="49" t="s">
         <v>266</v>
@@ -12943,7 +12961,7 @@
       <c r="B156" s="38"/>
       <c r="C156" s="38"/>
     </row>
-    <row r="157" spans="1:3" ht="15.95">
+    <row r="157" spans="1:3" ht="16">
       <c r="A157" s="39"/>
       <c r="B157" s="32" t="s">
         <v>237</v>
@@ -12952,7 +12970,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.95">
+    <row r="158" spans="1:3" ht="16">
       <c r="A158" s="39"/>
       <c r="B158" s="32" t="s">
         <v>271</v>
@@ -12961,7 +12979,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.95">
+    <row r="159" spans="1:3" ht="16">
       <c r="A159" s="39"/>
       <c r="B159" s="32" t="s">
         <v>147</v>
@@ -12977,7 +12995,7 @@
       <c r="B160" s="50"/>
       <c r="C160" s="50"/>
     </row>
-    <row r="161" spans="1:3" ht="15.95">
+    <row r="161" spans="1:3" ht="16">
       <c r="A161" s="40"/>
       <c r="B161" s="33" t="s">
         <v>149</v>
@@ -12993,7 +13011,7 @@
       <c r="B162" s="41"/>
       <c r="C162" s="41"/>
     </row>
-    <row r="163" spans="1:3" ht="15.95">
+    <row r="163" spans="1:3" ht="16">
       <c r="A163" s="40"/>
       <c r="B163" s="32" t="s">
         <v>237</v>
@@ -13002,14 +13020,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.95">
+    <row r="164" spans="1:3" ht="16">
       <c r="A164" s="40"/>
       <c r="B164" s="32" t="s">
         <v>188</v>
       </c>
       <c r="C164" s="32"/>
     </row>
-    <row r="165" spans="1:3" ht="15.95">
+    <row r="165" spans="1:3" ht="16">
       <c r="A165" s="40"/>
       <c r="B165" s="49" t="s">
         <v>274</v>
@@ -13018,7 +13036,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.95">
+    <row r="166" spans="1:3" ht="16">
       <c r="A166" s="40"/>
       <c r="B166" s="49" t="s">
         <v>276</v>
@@ -13027,7 +13045,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.95">
+    <row r="167" spans="1:3" ht="16">
       <c r="A167" s="40"/>
       <c r="B167" s="49" t="s">
         <v>278</v>
@@ -13036,7 +13054,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.95">
+    <row r="168" spans="1:3" ht="16">
       <c r="A168" s="40"/>
       <c r="B168" s="49" t="s">
         <v>280</v>
@@ -13045,7 +13063,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.95">
+    <row r="169" spans="1:3" ht="16">
       <c r="A169" s="40"/>
       <c r="B169" s="49" t="s">
         <v>191</v>
@@ -13054,7 +13072,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="32.1">
+    <row r="170" spans="1:3" ht="32">
       <c r="A170" s="40"/>
       <c r="B170" s="49" t="s">
         <v>283</v>
@@ -13063,7 +13081,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.95">
+    <row r="171" spans="1:3" ht="16">
       <c r="A171" s="40"/>
       <c r="B171" s="49" t="s">
         <v>285</v>
@@ -13072,7 +13090,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.95">
+    <row r="172" spans="1:3" ht="16">
       <c r="A172" s="40"/>
       <c r="B172" s="49" t="s">
         <v>287</v>
@@ -13081,7 +13099,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.95">
+    <row r="173" spans="1:3" ht="16">
       <c r="A173" s="40"/>
       <c r="B173" s="49" t="s">
         <v>289</v>
@@ -13090,7 +13108,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.95">
+    <row r="174" spans="1:3" ht="16">
       <c r="A174" s="40"/>
       <c r="B174" s="49" t="s">
         <v>291</v>
@@ -13099,7 +13117,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="32.1">
+    <row r="175" spans="1:3" ht="32">
       <c r="A175" s="40"/>
       <c r="B175" s="49" t="s">
         <v>293</v>
@@ -13108,7 +13126,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="32.1">
+    <row r="176" spans="1:3" ht="32">
       <c r="A176" s="40"/>
       <c r="B176" s="49" t="s">
         <v>295</v>
@@ -13117,7 +13135,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.95">
+    <row r="177" spans="1:3" ht="16">
       <c r="A177" s="40"/>
       <c r="B177" s="32" t="s">
         <v>271</v>
@@ -13126,7 +13144,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.95">
+    <row r="178" spans="1:3" ht="16">
       <c r="A178" s="40"/>
       <c r="B178" s="32" t="s">
         <v>147</v>
@@ -13135,7 +13153,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.95">
+    <row r="179" spans="1:3" ht="16">
       <c r="A179" s="40"/>
       <c r="B179" s="32" t="s">
         <v>297</v>
@@ -13144,7 +13162,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.95">
+    <row r="180" spans="1:3" ht="16">
       <c r="A180" s="40"/>
       <c r="B180" s="49" t="s">
         <v>299</v>
@@ -13153,7 +13171,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.95">
+    <row r="181" spans="1:3" ht="16">
       <c r="A181" s="40"/>
       <c r="B181" s="49" t="s">
         <v>301</v>
@@ -13162,7 +13180,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.95">
+    <row r="182" spans="1:3" ht="16">
       <c r="A182" s="40"/>
       <c r="B182" s="32" t="s">
         <v>303</v>
@@ -13171,7 +13189,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.95">
+    <row r="183" spans="1:3" ht="16">
       <c r="A183" s="40"/>
       <c r="B183" s="32" t="s">
         <v>305</v>
@@ -13180,7 +13198,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.95">
+    <row r="184" spans="1:3" ht="16">
       <c r="A184" s="40"/>
       <c r="B184" s="32" t="s">
         <v>307</v>
@@ -13219,7 +13237,7 @@
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
     </row>
-    <row r="192" spans="1:3" ht="15.95">
+    <row r="192" spans="1:3" ht="16">
       <c r="A192" s="39"/>
       <c r="B192" s="32" t="s">
         <v>311</v>
@@ -13228,7 +13246,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.95">
+    <row r="193" spans="1:3" ht="16">
       <c r="A193" s="39"/>
       <c r="B193" s="32" t="s">
         <v>313</v>
@@ -13237,7 +13255,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.95">
+    <row r="194" spans="1:3" ht="16">
       <c r="A194" s="39"/>
       <c r="B194" s="32" t="s">
         <v>315</v>
@@ -13246,7 +13264,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.95">
+    <row r="195" spans="1:3" ht="16">
       <c r="A195" s="39"/>
       <c r="B195" s="32" t="s">
         <v>147</v>
@@ -13262,7 +13280,7 @@
       <c r="B196" s="50"/>
       <c r="C196" s="50"/>
     </row>
-    <row r="197" spans="1:3" ht="15.95">
+    <row r="197" spans="1:3" ht="16">
       <c r="A197" s="40"/>
       <c r="B197" s="33" t="s">
         <v>149</v>
@@ -13278,7 +13296,7 @@
       <c r="B198" s="41"/>
       <c r="C198" s="41"/>
     </row>
-    <row r="199" spans="1:3" ht="15.95">
+    <row r="199" spans="1:3" ht="16">
       <c r="A199" s="40"/>
       <c r="B199" s="32" t="s">
         <v>311</v>
@@ -13287,7 +13305,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.95">
+    <row r="200" spans="1:3" ht="16">
       <c r="A200" s="40"/>
       <c r="B200" s="32" t="s">
         <v>313</v>
@@ -13296,7 +13314,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.95">
+    <row r="201" spans="1:3" ht="16">
       <c r="A201" s="40"/>
       <c r="B201" s="32" t="s">
         <v>315</v>
@@ -13305,7 +13323,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.95">
+    <row r="202" spans="1:3" ht="16">
       <c r="A202" s="40"/>
       <c r="B202" s="32" t="s">
         <v>147</v>
@@ -13363,14 +13381,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="86.42578125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="24.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="86.5" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.95">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="18" t="s">
         <v>320</v>
       </c>
@@ -13393,7 +13411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.35" customHeight="1">
+    <row r="6" spans="1:2" ht="43.25" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
@@ -13413,7 +13431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.95">
+    <row r="12" spans="1:2" ht="16">
       <c r="A12" s="23" t="s">
         <v>322</v>
       </c>
@@ -13431,7 +13449,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.35" customHeight="1">
+    <row r="15" spans="1:2" ht="43.25" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>4</v>
       </c>
@@ -13446,7 +13464,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.95">
+    <row r="20" spans="1:2" ht="16">
       <c r="A20" s="21" t="s">
         <v>323</v>
       </c>
@@ -13459,7 +13477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.35" customHeight="1">
+    <row r="22" spans="1:2" ht="43.25" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>4</v>
       </c>
@@ -13512,49 +13530,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC372"/>
+  <dimension ref="A1:AC373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N365" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O371" sqref="O371"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="P373" sqref="P373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="50" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="59.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="59.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="111" style="2" customWidth="1"/>
     <col min="16" max="16" width="34" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="77.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="31.42578125" style="2" customWidth="1"/>
-    <col min="25" max="26" width="31.85546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="26.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="2"/>
-    <col min="29" max="29" width="77.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="17" max="17" width="20.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="77.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.5" style="2" customWidth="1"/>
+    <col min="24" max="24" width="31.5" style="2" customWidth="1"/>
+    <col min="25" max="26" width="31.83203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="26.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="2"/>
+    <col min="29" max="29" width="77.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="56" customFormat="1" ht="63.95">
+    <row r="1" spans="1:29" s="56" customFormat="1" ht="64">
       <c r="A1" s="3" t="s">
         <v>325</v>
       </c>
@@ -13632,7 +13650,7 @@
       </c>
       <c r="AC1" s="105"/>
     </row>
-    <row r="2" spans="1:29" ht="15.95">
+    <row r="2" spans="1:29" ht="16">
       <c r="B2" s="93" t="s">
         <v>343</v>
       </c>
@@ -13673,7 +13691,7 @@
       <c r="U2" s="2"/>
       <c r="AC2" s="105"/>
     </row>
-    <row r="3" spans="1:29" ht="15.95">
+    <row r="3" spans="1:29" ht="16">
       <c r="B3" s="93" t="s">
         <v>352</v>
       </c>
@@ -13714,7 +13732,7 @@
       <c r="U3" s="2"/>
       <c r="AC3" s="105"/>
     </row>
-    <row r="4" spans="1:29" ht="32.1">
+    <row r="4" spans="1:29" ht="32">
       <c r="B4" s="93" t="s">
         <v>359</v>
       </c>
@@ -13755,7 +13773,7 @@
       <c r="U4" s="2"/>
       <c r="AC4" s="106"/>
     </row>
-    <row r="5" spans="1:29" ht="15.95">
+    <row r="5" spans="1:29" ht="16">
       <c r="B5" s="93" t="s">
         <v>364</v>
       </c>
@@ -13796,7 +13814,7 @@
       <c r="U5" s="2"/>
       <c r="AC5" s="105"/>
     </row>
-    <row r="6" spans="1:29" ht="15.95">
+    <row r="6" spans="1:29" ht="16">
       <c r="B6" s="93" t="s">
         <v>370</v>
       </c>
@@ -13837,7 +13855,7 @@
       <c r="U6" s="2"/>
       <c r="AC6" s="105"/>
     </row>
-    <row r="7" spans="1:29" ht="15.95">
+    <row r="7" spans="1:29" ht="16">
       <c r="B7" s="93" t="s">
         <v>376</v>
       </c>
@@ -13878,7 +13896,7 @@
       <c r="U7" s="2"/>
       <c r="AC7" s="105"/>
     </row>
-    <row r="8" spans="1:29" ht="15.95">
+    <row r="8" spans="1:29" ht="16">
       <c r="B8" s="93" t="s">
         <v>382</v>
       </c>
@@ -13919,7 +13937,7 @@
       <c r="U8" s="2"/>
       <c r="AC8" s="106"/>
     </row>
-    <row r="9" spans="1:29" ht="15.95">
+    <row r="9" spans="1:29" ht="16">
       <c r="B9" s="93" t="s">
         <v>390</v>
       </c>
@@ -13960,7 +13978,7 @@
       <c r="U9" s="2"/>
       <c r="AC9" s="106"/>
     </row>
-    <row r="10" spans="1:29" ht="15.95">
+    <row r="10" spans="1:29" ht="16">
       <c r="B10" s="93" t="s">
         <v>396</v>
       </c>
@@ -14001,7 +14019,7 @@
       <c r="U10" s="2"/>
       <c r="AC10" s="105"/>
     </row>
-    <row r="11" spans="1:29" ht="15.95">
+    <row r="11" spans="1:29" ht="16">
       <c r="B11" s="93" t="s">
         <v>403</v>
       </c>
@@ -14042,7 +14060,7 @@
       <c r="U11" s="2"/>
       <c r="AC11" s="105"/>
     </row>
-    <row r="12" spans="1:29" ht="32.1">
+    <row r="12" spans="1:29" ht="32">
       <c r="B12" s="93" t="s">
         <v>409</v>
       </c>
@@ -14083,7 +14101,7 @@
       <c r="U12" s="2"/>
       <c r="AC12" s="105"/>
     </row>
-    <row r="13" spans="1:29" ht="15.95">
+    <row r="13" spans="1:29" ht="16">
       <c r="B13" s="93" t="s">
         <v>414</v>
       </c>
@@ -14124,7 +14142,7 @@
       <c r="U13" s="2"/>
       <c r="AC13" s="105"/>
     </row>
-    <row r="14" spans="1:29" ht="15.95">
+    <row r="14" spans="1:29" ht="16">
       <c r="B14" s="93" t="s">
         <v>418</v>
       </c>
@@ -14165,7 +14183,7 @@
       <c r="U14" s="2"/>
       <c r="AC14" s="105"/>
     </row>
-    <row r="15" spans="1:29" ht="32.1">
+    <row r="15" spans="1:29" ht="32">
       <c r="B15" s="81" t="s">
         <v>425</v>
       </c>
@@ -14203,7 +14221,7 @@
       <c r="U15" s="2"/>
       <c r="AC15" s="105"/>
     </row>
-    <row r="16" spans="1:29" ht="32.1">
+    <row r="16" spans="1:29" ht="32">
       <c r="B16" s="81" t="s">
         <v>432</v>
       </c>
@@ -14241,7 +14259,7 @@
       <c r="U16" s="2"/>
       <c r="AC16" s="105"/>
     </row>
-    <row r="17" spans="2:29" ht="15.95">
+    <row r="17" spans="2:29" ht="16">
       <c r="B17" s="81" t="s">
         <v>438</v>
       </c>
@@ -14282,7 +14300,7 @@
       <c r="U17" s="2"/>
       <c r="AC17" s="105"/>
     </row>
-    <row r="18" spans="2:29" ht="15.95">
+    <row r="18" spans="2:29" ht="16">
       <c r="B18" s="93" t="s">
         <v>445</v>
       </c>
@@ -14323,7 +14341,7 @@
       <c r="U18" s="2"/>
       <c r="AC18" s="105"/>
     </row>
-    <row r="19" spans="2:29" ht="32.1">
+    <row r="19" spans="2:29" ht="32">
       <c r="B19" s="93" t="s">
         <v>450</v>
       </c>
@@ -14364,7 +14382,7 @@
       <c r="U19" s="2"/>
       <c r="AC19" s="105"/>
     </row>
-    <row r="20" spans="2:29" ht="15.95">
+    <row r="20" spans="2:29" ht="16">
       <c r="B20" s="97" t="s">
         <v>457</v>
       </c>
@@ -14405,7 +14423,7 @@
       <c r="U20" s="2"/>
       <c r="AC20" s="105"/>
     </row>
-    <row r="21" spans="2:29" ht="32.1">
+    <row r="21" spans="2:29" ht="32">
       <c r="B21" s="93" t="s">
         <v>461</v>
       </c>
@@ -14569,7 +14587,7 @@
       <c r="U24" s="2"/>
       <c r="AC24" s="105"/>
     </row>
-    <row r="25" spans="2:29" ht="32.1">
+    <row r="25" spans="2:29" ht="32">
       <c r="B25" s="93" t="s">
         <v>483</v>
       </c>
@@ -14856,7 +14874,7 @@
       <c r="U31" s="2"/>
       <c r="AC31" s="105"/>
     </row>
-    <row r="32" spans="2:29" ht="32.1">
+    <row r="32" spans="2:29" ht="32">
       <c r="B32" s="93" t="s">
         <v>518</v>
       </c>
@@ -14897,7 +14915,7 @@
       <c r="U32" s="2"/>
       <c r="AC32" s="105"/>
     </row>
-    <row r="33" spans="2:29" ht="32.1">
+    <row r="33" spans="2:29" ht="32">
       <c r="B33" s="93" t="s">
         <v>523</v>
       </c>
@@ -14938,7 +14956,7 @@
       <c r="U33" s="2"/>
       <c r="AC33" s="105"/>
     </row>
-    <row r="34" spans="2:29" ht="15.95">
+    <row r="34" spans="2:29" ht="16">
       <c r="B34" s="93" t="s">
         <v>531</v>
       </c>
@@ -14979,7 +14997,7 @@
       <c r="U34" s="2"/>
       <c r="AC34" s="105"/>
     </row>
-    <row r="35" spans="2:29" ht="15.95">
+    <row r="35" spans="2:29" ht="16">
       <c r="B35" s="93" t="s">
         <v>536</v>
       </c>
@@ -15020,7 +15038,7 @@
       <c r="U35" s="2"/>
       <c r="AC35" s="105"/>
     </row>
-    <row r="36" spans="2:29" ht="15.95">
+    <row r="36" spans="2:29" ht="16">
       <c r="B36" s="93" t="s">
         <v>541</v>
       </c>
@@ -15061,7 +15079,7 @@
       <c r="U36" s="2"/>
       <c r="AC36" s="105"/>
     </row>
-    <row r="37" spans="2:29" ht="15.95">
+    <row r="37" spans="2:29" ht="16">
       <c r="B37" s="93" t="s">
         <v>548</v>
       </c>
@@ -15102,7 +15120,7 @@
       <c r="U37" s="2"/>
       <c r="AC37" s="105"/>
     </row>
-    <row r="38" spans="2:29" ht="15.95">
+    <row r="38" spans="2:29" ht="16">
       <c r="B38" s="93" t="s">
         <v>553</v>
       </c>
@@ -15143,7 +15161,7 @@
       <c r="U38" s="2"/>
       <c r="AC38" s="105"/>
     </row>
-    <row r="39" spans="2:29" ht="32.1">
+    <row r="39" spans="2:29" ht="32">
       <c r="B39" s="93" t="s">
         <v>560</v>
       </c>
@@ -15184,7 +15202,7 @@
       <c r="U39" s="2"/>
       <c r="AC39" s="105"/>
     </row>
-    <row r="40" spans="2:29" ht="15.95">
+    <row r="40" spans="2:29" ht="32">
       <c r="B40" s="93" t="s">
         <v>565</v>
       </c>
@@ -15225,7 +15243,7 @@
       <c r="U40" s="2"/>
       <c r="AC40" s="105"/>
     </row>
-    <row r="41" spans="2:29" ht="32.1">
+    <row r="41" spans="2:29" ht="32">
       <c r="B41" s="93" t="s">
         <v>570</v>
       </c>
@@ -15339,7 +15357,7 @@
       <c r="U43" s="2"/>
       <c r="AC43" s="105"/>
     </row>
-    <row r="44" spans="2:29" ht="15.95">
+    <row r="44" spans="2:29" ht="32">
       <c r="B44" s="115" t="s">
         <v>581</v>
       </c>
@@ -15371,7 +15389,7 @@
       <c r="U44" s="2"/>
       <c r="AC44" s="105"/>
     </row>
-    <row r="45" spans="2:29" ht="32.1">
+    <row r="45" spans="2:29" ht="32">
       <c r="B45" s="115" t="s">
         <v>581</v>
       </c>
@@ -15403,7 +15421,7 @@
       <c r="U45" s="2"/>
       <c r="AC45" s="105"/>
     </row>
-    <row r="46" spans="2:29" ht="15.95">
+    <row r="46" spans="2:29" ht="16">
       <c r="B46" s="81" t="s">
         <v>595</v>
       </c>
@@ -15444,7 +15462,7 @@
       <c r="U46" s="2"/>
       <c r="AC46" s="105"/>
     </row>
-    <row r="47" spans="2:29" ht="15.95">
+    <row r="47" spans="2:29" ht="16">
       <c r="B47" s="81" t="s">
         <v>604</v>
       </c>
@@ -15485,7 +15503,7 @@
       <c r="U47" s="2"/>
       <c r="AC47" s="105"/>
     </row>
-    <row r="48" spans="2:29" ht="32.1">
+    <row r="48" spans="2:29" ht="32">
       <c r="B48" s="93" t="s">
         <v>613</v>
       </c>
@@ -15608,7 +15626,7 @@
       <c r="U50" s="2"/>
       <c r="AC50" s="105"/>
     </row>
-    <row r="51" spans="2:29" ht="32.1">
+    <row r="51" spans="2:29" ht="32">
       <c r="B51" s="116" t="s">
         <v>581</v>
       </c>
@@ -15681,7 +15699,7 @@
       <c r="U52" s="2"/>
       <c r="AC52" s="105"/>
     </row>
-    <row r="53" spans="2:29" ht="15.95">
+    <row r="53" spans="2:29" ht="16">
       <c r="B53" s="81" t="s">
         <v>343</v>
       </c>
@@ -15722,7 +15740,7 @@
       <c r="U53" s="2"/>
       <c r="AC53" s="105"/>
     </row>
-    <row r="54" spans="2:29" ht="32.1">
+    <row r="54" spans="2:29" ht="32">
       <c r="B54" s="81" t="s">
         <v>418</v>
       </c>
@@ -15760,7 +15778,7 @@
       <c r="U54" s="2"/>
       <c r="AC54" s="106"/>
     </row>
-    <row r="55" spans="2:29" ht="15.95">
+    <row r="55" spans="2:29" ht="16">
       <c r="B55" s="115" t="s">
         <v>581</v>
       </c>
@@ -15790,7 +15808,7 @@
       <c r="U55" s="2"/>
       <c r="AC55" s="105"/>
     </row>
-    <row r="56" spans="2:29" ht="15.95">
+    <row r="56" spans="2:29" ht="16">
       <c r="B56" s="93" t="s">
         <v>364</v>
       </c>
@@ -15831,7 +15849,7 @@
       <c r="U56" s="2"/>
       <c r="AC56" s="105"/>
     </row>
-    <row r="57" spans="2:29" ht="15.95">
+    <row r="57" spans="2:29" ht="16">
       <c r="B57" s="93" t="s">
         <v>370</v>
       </c>
@@ -15872,7 +15890,7 @@
       <c r="U57" s="2"/>
       <c r="AC57" s="105"/>
     </row>
-    <row r="58" spans="2:29" ht="15.95">
+    <row r="58" spans="2:29" ht="16">
       <c r="B58" s="93" t="s">
         <v>403</v>
       </c>
@@ -15913,7 +15931,7 @@
       <c r="U58" s="2"/>
       <c r="AC58" s="105"/>
     </row>
-    <row r="59" spans="2:29" s="94" customFormat="1" ht="15.95">
+    <row r="59" spans="2:29" s="94" customFormat="1" ht="16">
       <c r="B59" s="94" t="s">
         <v>659</v>
       </c>
@@ -15950,7 +15968,7 @@
       <c r="R59" s="105"/>
       <c r="AC59" s="105"/>
     </row>
-    <row r="60" spans="2:29" s="94" customFormat="1" ht="15.95">
+    <row r="60" spans="2:29" s="94" customFormat="1" ht="16">
       <c r="B60" s="115" t="s">
         <v>581</v>
       </c>
@@ -15978,7 +15996,7 @@
       <c r="R60" s="105"/>
       <c r="AC60" s="105"/>
     </row>
-    <row r="61" spans="2:29" ht="32.1">
+    <row r="61" spans="2:29" ht="32">
       <c r="B61" s="81" t="s">
         <v>669</v>
       </c>
@@ -16019,7 +16037,7 @@
       <c r="U61" s="2"/>
       <c r="AC61" s="105"/>
     </row>
-    <row r="62" spans="2:29" ht="32.1">
+    <row r="62" spans="2:29" ht="32">
       <c r="B62" s="81" t="s">
         <v>679</v>
       </c>
@@ -16060,7 +16078,7 @@
       <c r="U62" s="2"/>
       <c r="AC62" s="105"/>
     </row>
-    <row r="63" spans="2:29" ht="32.1">
+    <row r="63" spans="2:29" ht="32">
       <c r="B63" s="81" t="s">
         <v>687</v>
       </c>
@@ -16101,7 +16119,7 @@
       <c r="U63" s="2"/>
       <c r="AC63" s="105"/>
     </row>
-    <row r="64" spans="2:29" ht="32.1">
+    <row r="64" spans="2:29" ht="32">
       <c r="B64" s="81" t="s">
         <v>693</v>
       </c>
@@ -16142,7 +16160,7 @@
       <c r="U64" s="2"/>
       <c r="AC64" s="105"/>
     </row>
-    <row r="65" spans="2:29" ht="32.1">
+    <row r="65" spans="2:29" ht="32">
       <c r="B65" s="115" t="s">
         <v>581</v>
       </c>
@@ -16174,7 +16192,7 @@
       <c r="U65" s="2"/>
       <c r="AC65" s="105"/>
     </row>
-    <row r="66" spans="2:29" ht="15.95">
+    <row r="66" spans="2:29" ht="32">
       <c r="B66" s="115" t="s">
         <v>581</v>
       </c>
@@ -16206,7 +16224,7 @@
       <c r="U66" s="2"/>
       <c r="AC66" s="105"/>
     </row>
-    <row r="67" spans="2:29" ht="15.95">
+    <row r="67" spans="2:29" ht="32">
       <c r="B67" s="115" t="s">
         <v>581</v>
       </c>
@@ -16235,7 +16253,7 @@
       <c r="U67" s="2"/>
       <c r="AC67" s="105"/>
     </row>
-    <row r="68" spans="2:29" ht="15.95">
+    <row r="68" spans="2:29" ht="16">
       <c r="B68" s="81" t="s">
         <v>712</v>
       </c>
@@ -16358,7 +16376,7 @@
       <c r="U70" s="2"/>
       <c r="AC70" s="105"/>
     </row>
-    <row r="71" spans="2:29" ht="15.95">
+    <row r="71" spans="2:29" ht="16">
       <c r="B71" s="115" t="s">
         <v>581</v>
       </c>
@@ -16390,7 +16408,7 @@
       <c r="U71" s="2"/>
       <c r="AC71" s="105"/>
     </row>
-    <row r="72" spans="2:29" ht="32.1">
+    <row r="72" spans="2:29" ht="32">
       <c r="B72" s="115" t="s">
         <v>581</v>
       </c>
@@ -16422,7 +16440,7 @@
       <c r="U72" s="2"/>
       <c r="AC72" s="105"/>
     </row>
-    <row r="73" spans="2:29" ht="15.95">
+    <row r="73" spans="2:29" ht="16">
       <c r="B73" s="115" t="s">
         <v>581</v>
       </c>
@@ -16454,7 +16472,7 @@
       <c r="U73" s="2"/>
       <c r="AC73" s="105"/>
     </row>
-    <row r="74" spans="2:29" ht="32.1">
+    <row r="74" spans="2:29" ht="32">
       <c r="B74" s="115" t="s">
         <v>581</v>
       </c>
@@ -16486,7 +16504,7 @@
       <c r="U74" s="2"/>
       <c r="AC74" s="105"/>
     </row>
-    <row r="75" spans="2:29" ht="32.1">
+    <row r="75" spans="2:29" ht="32">
       <c r="B75" s="115" t="s">
         <v>581</v>
       </c>
@@ -16518,7 +16536,7 @@
       <c r="U75" s="2"/>
       <c r="AC75" s="105"/>
     </row>
-    <row r="76" spans="2:29" ht="15.95">
+    <row r="76" spans="2:29" ht="16">
       <c r="B76" s="115" t="s">
         <v>581</v>
       </c>
@@ -16550,7 +16568,7 @@
       <c r="U76" s="2"/>
       <c r="AC76" s="105"/>
     </row>
-    <row r="77" spans="2:29" ht="15.95">
+    <row r="77" spans="2:29" ht="16">
       <c r="B77" s="81" t="s">
         <v>757</v>
       </c>
@@ -16623,7 +16641,7 @@
       <c r="U78" s="2"/>
       <c r="AC78" s="105"/>
     </row>
-    <row r="79" spans="2:29" ht="32.1">
+    <row r="79" spans="2:29" ht="32">
       <c r="B79" s="115" t="s">
         <v>581</v>
       </c>
@@ -16684,7 +16702,7 @@
       <c r="U80" s="2"/>
       <c r="AC80" s="105"/>
     </row>
-    <row r="81" spans="2:29" ht="32.1">
+    <row r="81" spans="2:29" ht="32">
       <c r="B81" s="115" t="s">
         <v>581</v>
       </c>
@@ -16716,7 +16734,7 @@
       <c r="U81" s="2"/>
       <c r="AC81" s="105"/>
     </row>
-    <row r="82" spans="2:29" ht="32.1">
+    <row r="82" spans="2:29" ht="32">
       <c r="B82" s="115" t="s">
         <v>581</v>
       </c>
@@ -16748,7 +16766,7 @@
       <c r="U82" s="2"/>
       <c r="AC82" s="105"/>
     </row>
-    <row r="83" spans="2:29" ht="15.95">
+    <row r="83" spans="2:29" ht="32">
       <c r="B83" s="115" t="s">
         <v>581</v>
       </c>
@@ -16777,7 +16795,7 @@
       <c r="U83" s="2"/>
       <c r="AC83" s="105"/>
     </row>
-    <row r="84" spans="2:29" ht="15.95">
+    <row r="84" spans="2:29" ht="32">
       <c r="B84" s="115" t="s">
         <v>581</v>
       </c>
@@ -16806,7 +16824,7 @@
       <c r="U84" s="2"/>
       <c r="AC84" s="105"/>
     </row>
-    <row r="85" spans="2:29" ht="15.95">
+    <row r="85" spans="2:29" ht="32">
       <c r="B85" s="115" t="s">
         <v>581</v>
       </c>
@@ -16835,7 +16853,7 @@
       <c r="U85" s="2"/>
       <c r="AC85" s="105"/>
     </row>
-    <row r="86" spans="2:29" ht="15.95">
+    <row r="86" spans="2:29" ht="16">
       <c r="B86" s="81" t="s">
         <v>794</v>
       </c>
@@ -16914,7 +16932,7 @@
       <c r="U87" s="2"/>
       <c r="AC87" s="105"/>
     </row>
-    <row r="88" spans="2:29" ht="15.95">
+    <row r="88" spans="2:29" ht="16">
       <c r="B88" s="115" t="s">
         <v>581</v>
       </c>
@@ -16946,7 +16964,7 @@
       <c r="U88" s="2"/>
       <c r="AC88" s="105"/>
     </row>
-    <row r="89" spans="2:29" ht="32.1">
+    <row r="89" spans="2:29" ht="32">
       <c r="B89" s="115" t="s">
         <v>581</v>
       </c>
@@ -17004,7 +17022,7 @@
       <c r="U90" s="2"/>
       <c r="AC90" s="105"/>
     </row>
-    <row r="91" spans="2:29" ht="32.1">
+    <row r="91" spans="2:29" ht="32">
       <c r="B91" s="115" t="s">
         <v>581</v>
       </c>
@@ -17062,7 +17080,7 @@
       <c r="U92" s="2"/>
       <c r="AC92" s="105"/>
     </row>
-    <row r="93" spans="2:29" ht="32.1">
+    <row r="93" spans="2:29" ht="32">
       <c r="B93" s="115" t="s">
         <v>581</v>
       </c>
@@ -17091,7 +17109,7 @@
       <c r="U93" s="2"/>
       <c r="AC93" s="105"/>
     </row>
-    <row r="94" spans="2:29" ht="32.1">
+    <row r="94" spans="2:29" ht="32">
       <c r="B94" s="81" t="s">
         <v>825</v>
       </c>
@@ -17129,7 +17147,7 @@
       <c r="U94" s="2"/>
       <c r="AC94" s="105"/>
     </row>
-    <row r="95" spans="2:29" ht="32.1">
+    <row r="95" spans="2:29" ht="32">
       <c r="B95" s="115" t="s">
         <v>581</v>
       </c>
@@ -17187,7 +17205,7 @@
       <c r="U96" s="2"/>
       <c r="AC96" s="105"/>
     </row>
-    <row r="97" spans="2:29" ht="32.1">
+    <row r="97" spans="2:29" ht="32">
       <c r="B97" s="81" t="s">
         <v>396</v>
       </c>
@@ -17225,7 +17243,7 @@
       <c r="U97" s="2"/>
       <c r="AC97" s="105"/>
     </row>
-    <row r="98" spans="2:29" ht="80.099999999999994">
+    <row r="98" spans="2:29" ht="80">
       <c r="B98" s="115" t="s">
         <v>581</v>
       </c>
@@ -17257,7 +17275,7 @@
       <c r="U98" s="2"/>
       <c r="AC98" s="105"/>
     </row>
-    <row r="99" spans="2:29" ht="48">
+    <row r="99" spans="2:29" ht="64">
       <c r="B99" s="115" t="s">
         <v>581</v>
       </c>
@@ -17286,7 +17304,7 @@
       <c r="U99" s="2"/>
       <c r="AC99" s="105"/>
     </row>
-    <row r="100" spans="2:29" ht="63.95">
+    <row r="100" spans="2:29" ht="80">
       <c r="B100" s="115" t="s">
         <v>581</v>
       </c>
@@ -17318,7 +17336,7 @@
       <c r="U100" s="2"/>
       <c r="AC100" s="105"/>
     </row>
-    <row r="101" spans="2:29" ht="48">
+    <row r="101" spans="2:29" ht="64">
       <c r="B101" s="81" t="s">
         <v>853</v>
       </c>
@@ -17359,7 +17377,7 @@
       <c r="U101" s="2"/>
       <c r="AC101" s="105"/>
     </row>
-    <row r="102" spans="2:29" ht="48">
+    <row r="102" spans="2:29" ht="64">
       <c r="B102" s="115" t="s">
         <v>581</v>
       </c>
@@ -17391,7 +17409,7 @@
       <c r="U102" s="2"/>
       <c r="AC102" s="105"/>
     </row>
-    <row r="103" spans="2:29" ht="48">
+    <row r="103" spans="2:29" ht="80">
       <c r="B103" s="115" t="s">
         <v>581</v>
       </c>
@@ -17423,7 +17441,7 @@
       <c r="U103" s="2"/>
       <c r="AC103" s="105"/>
     </row>
-    <row r="104" spans="2:29" ht="63.95">
+    <row r="104" spans="2:29" ht="80">
       <c r="B104" s="115" t="s">
         <v>581</v>
       </c>
@@ -17455,7 +17473,7 @@
       <c r="U104" s="2"/>
       <c r="AC104" s="105"/>
     </row>
-    <row r="105" spans="2:29" ht="32.1">
+    <row r="105" spans="2:29" ht="32">
       <c r="B105" s="115" t="s">
         <v>581</v>
       </c>
@@ -17516,7 +17534,7 @@
       <c r="U106" s="2"/>
       <c r="AC106" s="105"/>
     </row>
-    <row r="107" spans="2:29" ht="32.1">
+    <row r="107" spans="2:29" ht="32">
       <c r="B107" s="81" t="s">
         <v>882</v>
       </c>
@@ -17589,7 +17607,7 @@
       <c r="U108" s="2"/>
       <c r="AC108" s="105"/>
     </row>
-    <row r="109" spans="2:29" ht="15.95">
+    <row r="109" spans="2:29" ht="32">
       <c r="B109" s="81" t="s">
         <v>892</v>
       </c>
@@ -17624,7 +17642,7 @@
       <c r="U109" s="2"/>
       <c r="AC109" s="105"/>
     </row>
-    <row r="110" spans="2:29" ht="32.1">
+    <row r="110" spans="2:29" ht="48">
       <c r="B110" s="81" t="s">
         <v>898</v>
       </c>
@@ -17662,7 +17680,7 @@
       <c r="U110" s="2"/>
       <c r="AC110" s="105"/>
     </row>
-    <row r="111" spans="2:29" ht="32.1">
+    <row r="111" spans="2:29" ht="64">
       <c r="B111" s="81" t="s">
         <v>903</v>
       </c>
@@ -17700,7 +17718,7 @@
       <c r="U111" s="2"/>
       <c r="AC111" s="105"/>
     </row>
-    <row r="112" spans="2:29" ht="32.1">
+    <row r="112" spans="2:29" ht="48">
       <c r="B112" s="81" t="s">
         <v>910</v>
       </c>
@@ -17738,7 +17756,7 @@
       <c r="U112" s="2"/>
       <c r="AC112" s="105"/>
     </row>
-    <row r="113" spans="2:29" ht="32.1">
+    <row r="113" spans="2:29" ht="32">
       <c r="B113" s="115" t="s">
         <v>581</v>
       </c>
@@ -17770,7 +17788,7 @@
       <c r="U113" s="2"/>
       <c r="AC113" s="105"/>
     </row>
-    <row r="114" spans="2:29" ht="32.1">
+    <row r="114" spans="2:29" ht="32">
       <c r="B114" s="115" t="s">
         <v>581</v>
       </c>
@@ -17802,7 +17820,7 @@
       <c r="U114" s="2"/>
       <c r="AC114" s="105"/>
     </row>
-    <row r="115" spans="2:29" ht="32.1">
+    <row r="115" spans="2:29" ht="32">
       <c r="B115" s="115" t="s">
         <v>581</v>
       </c>
@@ -17831,7 +17849,7 @@
       <c r="U115" s="2"/>
       <c r="AC115" s="105"/>
     </row>
-    <row r="116" spans="2:29" ht="32.1">
+    <row r="116" spans="2:29" ht="32">
       <c r="B116" s="81" t="s">
         <v>928</v>
       </c>
@@ -17869,7 +17887,7 @@
       <c r="U116" s="2"/>
       <c r="AC116" s="105"/>
     </row>
-    <row r="117" spans="2:29" ht="32.1">
+    <row r="117" spans="2:29" ht="32">
       <c r="B117" s="81" t="s">
         <v>932</v>
       </c>
@@ -17907,7 +17925,7 @@
       <c r="U117" s="2"/>
       <c r="AC117" s="105"/>
     </row>
-    <row r="118" spans="2:29" ht="32.1">
+    <row r="118" spans="2:29" ht="32">
       <c r="B118" s="115" t="s">
         <v>581</v>
       </c>
@@ -17936,7 +17954,7 @@
       <c r="U118" s="2"/>
       <c r="AC118" s="105"/>
     </row>
-    <row r="119" spans="2:29" ht="32.1">
+    <row r="119" spans="2:29" ht="32">
       <c r="B119" s="81" t="s">
         <v>343</v>
       </c>
@@ -17974,7 +17992,7 @@
       <c r="U119" s="2"/>
       <c r="AC119" s="105"/>
     </row>
-    <row r="120" spans="2:29" ht="32.1">
+    <row r="120" spans="2:29" ht="32">
       <c r="B120" s="115" t="s">
         <v>581</v>
       </c>
@@ -18041,7 +18059,7 @@
       <c r="U121" s="2"/>
       <c r="AC121" s="105"/>
     </row>
-    <row r="122" spans="2:29" ht="32.1">
+    <row r="122" spans="2:29" ht="32">
       <c r="B122" s="81" t="s">
         <v>364</v>
       </c>
@@ -18079,7 +18097,7 @@
       <c r="U122" s="2"/>
       <c r="AC122" s="105"/>
     </row>
-    <row r="123" spans="2:29" ht="32.1">
+    <row r="123" spans="2:29" ht="32">
       <c r="B123" s="81" t="s">
         <v>370</v>
       </c>
@@ -18117,7 +18135,7 @@
       <c r="U123" s="2"/>
       <c r="AC123" s="105"/>
     </row>
-    <row r="124" spans="2:29" ht="32.1">
+    <row r="124" spans="2:29" ht="32">
       <c r="B124" s="81" t="s">
         <v>960</v>
       </c>
@@ -18155,7 +18173,7 @@
       <c r="U124" s="2"/>
       <c r="AC124" s="105"/>
     </row>
-    <row r="125" spans="2:29" ht="32.1">
+    <row r="125" spans="2:29" ht="32">
       <c r="B125" s="81" t="s">
         <v>418</v>
       </c>
@@ -18193,7 +18211,7 @@
       <c r="U125" s="2"/>
       <c r="AC125" s="105"/>
     </row>
-    <row r="126" spans="2:29" ht="32.1">
+    <row r="126" spans="2:29" ht="32">
       <c r="B126" s="81" t="s">
         <v>968</v>
       </c>
@@ -18231,7 +18249,7 @@
       <c r="U126" s="2"/>
       <c r="AC126" s="105"/>
     </row>
-    <row r="127" spans="2:29" ht="32.1">
+    <row r="127" spans="2:29" ht="32">
       <c r="B127" s="115" t="s">
         <v>972</v>
       </c>
@@ -18260,7 +18278,7 @@
       <c r="U127" s="2"/>
       <c r="AC127" s="105"/>
     </row>
-    <row r="128" spans="2:29" ht="32.1">
+    <row r="128" spans="2:29" ht="32">
       <c r="B128" s="81" t="s">
         <v>978</v>
       </c>
@@ -18298,7 +18316,7 @@
       <c r="U128" s="2"/>
       <c r="AC128" s="105"/>
     </row>
-    <row r="129" spans="2:29" ht="32.1">
+    <row r="129" spans="2:29" ht="32">
       <c r="B129" s="81" t="s">
         <v>987</v>
       </c>
@@ -18336,7 +18354,7 @@
       <c r="U129" s="2"/>
       <c r="AC129" s="105"/>
     </row>
-    <row r="130" spans="2:29" ht="32.1">
+    <row r="130" spans="2:29" ht="32">
       <c r="B130" s="81" t="s">
         <v>978</v>
       </c>
@@ -18374,7 +18392,7 @@
       <c r="U130" s="2"/>
       <c r="AC130" s="105"/>
     </row>
-    <row r="131" spans="2:29" ht="32.1">
+    <row r="131" spans="2:29" ht="32">
       <c r="B131" s="81" t="s">
         <v>994</v>
       </c>
@@ -18412,7 +18430,7 @@
       <c r="U131" s="2"/>
       <c r="AC131" s="105"/>
     </row>
-    <row r="132" spans="2:29" ht="32.1">
+    <row r="132" spans="2:29" ht="32">
       <c r="B132" s="81" t="s">
         <v>987</v>
       </c>
@@ -18450,7 +18468,7 @@
       <c r="U132" s="2"/>
       <c r="AC132" s="105"/>
     </row>
-    <row r="133" spans="2:29" ht="63.95">
+    <row r="133" spans="2:29" ht="64">
       <c r="B133" s="81" t="s">
         <v>1001</v>
       </c>
@@ -18491,7 +18509,7 @@
       <c r="U133" s="2"/>
       <c r="AC133" s="105"/>
     </row>
-    <row r="134" spans="2:29" ht="32.1">
+    <row r="134" spans="2:29" ht="32">
       <c r="B134" s="81" t="s">
         <v>1007</v>
       </c>
@@ -18532,7 +18550,7 @@
       <c r="U134" s="2"/>
       <c r="AC134" s="105"/>
     </row>
-    <row r="135" spans="2:29" ht="32.1">
+    <row r="135" spans="2:29" ht="32">
       <c r="B135" s="115" t="s">
         <v>1014</v>
       </c>
@@ -18564,7 +18582,7 @@
       <c r="U135" s="2"/>
       <c r="AC135" s="105"/>
     </row>
-    <row r="136" spans="2:29" ht="32.1">
+    <row r="136" spans="2:29" ht="32">
       <c r="B136" s="81" t="s">
         <v>1020</v>
       </c>
@@ -18602,7 +18620,7 @@
       <c r="U136" s="2"/>
       <c r="AC136" s="105"/>
     </row>
-    <row r="137" spans="2:29" ht="15.95">
+    <row r="137" spans="2:29" ht="32">
       <c r="B137" s="115" t="s">
         <v>1014</v>
       </c>
@@ -18631,7 +18649,7 @@
       <c r="U137" s="2"/>
       <c r="AC137" s="105"/>
     </row>
-    <row r="138" spans="2:29" ht="15.95">
+    <row r="138" spans="2:29" ht="16">
       <c r="B138" s="115" t="s">
         <v>1014</v>
       </c>
@@ -18660,7 +18678,7 @@
       <c r="U138" s="2"/>
       <c r="AC138" s="105"/>
     </row>
-    <row r="139" spans="2:29" ht="32.1">
+    <row r="139" spans="2:29" ht="32">
       <c r="B139" s="81" t="s">
         <v>1031</v>
       </c>
@@ -18736,7 +18754,7 @@
       <c r="U140" s="2"/>
       <c r="AC140" s="105"/>
     </row>
-    <row r="141" spans="2:29" ht="63.95">
+    <row r="141" spans="2:29" ht="64">
       <c r="B141" s="81" t="s">
         <v>1044</v>
       </c>
@@ -18777,7 +18795,7 @@
       <c r="U141" s="2"/>
       <c r="AC141" s="105"/>
     </row>
-    <row r="142" spans="2:29" ht="32.1">
+    <row r="142" spans="2:29" ht="32">
       <c r="B142" s="81" t="s">
         <v>1050</v>
       </c>
@@ -18818,7 +18836,7 @@
       <c r="U142" s="2"/>
       <c r="AC142" s="105"/>
     </row>
-    <row r="143" spans="2:29" ht="32.1">
+    <row r="143" spans="2:29" ht="32">
       <c r="B143" s="81" t="s">
         <v>1055</v>
       </c>
@@ -18920,7 +18938,7 @@
       <c r="U145" s="2"/>
       <c r="AC145" s="105"/>
     </row>
-    <row r="146" spans="2:29" ht="32.1">
+    <row r="146" spans="2:29" ht="32">
       <c r="B146" s="115" t="s">
         <v>1014</v>
       </c>
@@ -18952,7 +18970,7 @@
       <c r="U146" s="2"/>
       <c r="AC146" s="83"/>
     </row>
-    <row r="147" spans="2:29" ht="32.1">
+    <row r="147" spans="2:29" ht="32">
       <c r="B147" s="115" t="s">
         <v>1014</v>
       </c>
@@ -18984,7 +19002,7 @@
       <c r="U147" s="2"/>
       <c r="AC147" s="105"/>
     </row>
-    <row r="148" spans="2:29" ht="15.95">
+    <row r="148" spans="2:29" ht="16">
       <c r="B148" s="81" t="s">
         <v>1076</v>
       </c>
@@ -19025,7 +19043,7 @@
       <c r="U148" s="2"/>
       <c r="AC148" s="106"/>
     </row>
-    <row r="149" spans="2:29" ht="32.1">
+    <row r="149" spans="2:29" ht="32">
       <c r="B149" s="81" t="s">
         <v>1082</v>
       </c>
@@ -19063,7 +19081,7 @@
       <c r="U149" s="2"/>
       <c r="AC149" s="105"/>
     </row>
-    <row r="150" spans="2:29" ht="32.1">
+    <row r="150" spans="2:29" ht="32">
       <c r="B150" s="81" t="s">
         <v>1086</v>
       </c>
@@ -19104,7 +19122,7 @@
       <c r="U150" s="2"/>
       <c r="AC150" s="105"/>
     </row>
-    <row r="151" spans="2:29" ht="15.95">
+    <row r="151" spans="2:29" ht="16">
       <c r="B151" s="81" t="s">
         <v>1092</v>
       </c>
@@ -19145,7 +19163,7 @@
       <c r="U151" s="2"/>
       <c r="AC151" s="105"/>
     </row>
-    <row r="152" spans="2:29" ht="32.1">
+    <row r="152" spans="2:29" ht="32">
       <c r="B152" s="81" t="s">
         <v>1098</v>
       </c>
@@ -19186,7 +19204,7 @@
       <c r="U152" s="2"/>
       <c r="AC152" s="105"/>
     </row>
-    <row r="153" spans="2:29" ht="15.95">
+    <row r="153" spans="2:29" ht="16">
       <c r="B153" s="81" t="s">
         <v>1104</v>
       </c>
@@ -19224,7 +19242,7 @@
       <c r="U153" s="2"/>
       <c r="AC153" s="105"/>
     </row>
-    <row r="154" spans="2:29" ht="15.95">
+    <row r="154" spans="2:29" ht="16">
       <c r="B154" s="81" t="s">
         <v>1110</v>
       </c>
@@ -19265,7 +19283,7 @@
       <c r="U154" s="2"/>
       <c r="AC154" s="105"/>
     </row>
-    <row r="155" spans="2:29" ht="63.95">
+    <row r="155" spans="2:29" ht="64">
       <c r="B155" s="81" t="s">
         <v>1044</v>
       </c>
@@ -19306,7 +19324,7 @@
       <c r="U155" s="2"/>
       <c r="AC155" s="105"/>
     </row>
-    <row r="156" spans="2:29" ht="32.1">
+    <row r="156" spans="2:29" ht="32">
       <c r="B156" s="81" t="s">
         <v>1120</v>
       </c>
@@ -19347,7 +19365,7 @@
       <c r="U156" s="2"/>
       <c r="AC156" s="105"/>
     </row>
-    <row r="157" spans="2:29" ht="32.1">
+    <row r="157" spans="2:29" ht="32">
       <c r="B157" s="81" t="s">
         <v>1126</v>
       </c>
@@ -19388,7 +19406,7 @@
       <c r="U157" s="2"/>
       <c r="AC157" s="105"/>
     </row>
-    <row r="158" spans="2:29" ht="15.95">
+    <row r="158" spans="2:29" ht="16">
       <c r="B158" s="81" t="s">
         <v>1130</v>
       </c>
@@ -19429,7 +19447,7 @@
       <c r="U158" s="2"/>
       <c r="AC158" s="105"/>
     </row>
-    <row r="159" spans="2:29" ht="32.1">
+    <row r="159" spans="2:29" ht="32">
       <c r="B159" s="81" t="s">
         <v>1136</v>
       </c>
@@ -19467,7 +19485,7 @@
       <c r="U159" s="2"/>
       <c r="AC159" s="105"/>
     </row>
-    <row r="160" spans="2:29" ht="32.1">
+    <row r="160" spans="2:29" ht="32">
       <c r="B160" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19499,7 +19517,7 @@
       <c r="U160" s="2"/>
       <c r="AC160" s="105"/>
     </row>
-    <row r="161" spans="2:29" ht="32.1">
+    <row r="161" spans="2:29" ht="32">
       <c r="B161" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19531,7 +19549,7 @@
       <c r="U161" s="2"/>
       <c r="AC161" s="105"/>
     </row>
-    <row r="162" spans="2:29" ht="15.95">
+    <row r="162" spans="2:29" ht="16">
       <c r="B162" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19563,7 +19581,7 @@
       <c r="U162" s="2"/>
       <c r="AC162" s="105"/>
     </row>
-    <row r="163" spans="2:29" ht="15.95">
+    <row r="163" spans="2:29" ht="16">
       <c r="B163" s="81" t="s">
         <v>1151</v>
       </c>
@@ -19604,7 +19622,7 @@
       <c r="U163" s="2"/>
       <c r="AC163" s="105"/>
     </row>
-    <row r="164" spans="2:29" ht="15.95">
+    <row r="164" spans="2:29" ht="16">
       <c r="B164" s="81" t="s">
         <v>1155</v>
       </c>
@@ -19645,7 +19663,7 @@
       <c r="U164" s="2"/>
       <c r="AC164" s="105"/>
     </row>
-    <row r="165" spans="2:29" ht="15.95">
+    <row r="165" spans="2:29" ht="32">
       <c r="B165" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19677,7 +19695,7 @@
       <c r="U165" s="2"/>
       <c r="AC165" s="105"/>
     </row>
-    <row r="166" spans="2:29" ht="15.95">
+    <row r="166" spans="2:29" ht="32">
       <c r="B166" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19709,7 +19727,7 @@
       <c r="U166" s="2"/>
       <c r="AC166" s="105"/>
     </row>
-    <row r="167" spans="2:29" ht="15.95">
+    <row r="167" spans="2:29" ht="16">
       <c r="B167" s="81" t="s">
         <v>1163</v>
       </c>
@@ -19750,7 +19768,7 @@
       <c r="U167" s="2"/>
       <c r="AC167" s="105"/>
     </row>
-    <row r="168" spans="2:29" ht="32.1">
+    <row r="168" spans="2:29" ht="32">
       <c r="B168" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19814,7 +19832,7 @@
       <c r="U169" s="2"/>
       <c r="AC169" s="105"/>
     </row>
-    <row r="170" spans="2:29" ht="32.1">
+    <row r="170" spans="2:29" ht="32">
       <c r="B170" s="81" t="s">
         <v>972</v>
       </c>
@@ -19846,7 +19864,7 @@
       <c r="U170" s="2"/>
       <c r="AC170" s="105"/>
     </row>
-    <row r="171" spans="2:29" ht="15.95">
+    <row r="171" spans="2:29" ht="16">
       <c r="B171" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19878,7 +19896,7 @@
       <c r="U171" s="2"/>
       <c r="AC171" s="105"/>
     </row>
-    <row r="172" spans="2:29" ht="32.1">
+    <row r="172" spans="2:29" ht="32">
       <c r="B172" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19910,7 +19928,7 @@
       <c r="U172" s="2"/>
       <c r="AC172" s="105"/>
     </row>
-    <row r="173" spans="2:29" ht="15.95">
+    <row r="173" spans="2:29" ht="16">
       <c r="B173" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19942,7 +19960,7 @@
       <c r="U173" s="2"/>
       <c r="AC173" s="105"/>
     </row>
-    <row r="174" spans="2:29" ht="15.95">
+    <row r="174" spans="2:29" ht="16">
       <c r="B174" s="115" t="s">
         <v>1014</v>
       </c>
@@ -19974,7 +19992,7 @@
       <c r="U174" s="2"/>
       <c r="AC174" s="105"/>
     </row>
-    <row r="175" spans="2:29" ht="32.1">
+    <row r="175" spans="2:29" ht="32">
       <c r="B175" s="81" t="s">
         <v>1197</v>
       </c>
@@ -20015,7 +20033,7 @@
       <c r="U175" s="2"/>
       <c r="AC175" s="105"/>
     </row>
-    <row r="176" spans="2:29" ht="15.95">
+    <row r="176" spans="2:29" ht="16">
       <c r="B176" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20048,7 +20066,7 @@
       <c r="U176" s="2"/>
       <c r="AC176" s="105"/>
     </row>
-    <row r="177" spans="2:29" ht="32.1">
+    <row r="177" spans="2:29" ht="32">
       <c r="B177" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20081,7 +20099,7 @@
       <c r="U177" s="2"/>
       <c r="AC177" s="105"/>
     </row>
-    <row r="178" spans="2:29" ht="32.1">
+    <row r="178" spans="2:29" ht="32">
       <c r="B178" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20114,7 +20132,7 @@
       <c r="U178" s="2"/>
       <c r="AC178" s="105"/>
     </row>
-    <row r="179" spans="2:29" ht="15.95">
+    <row r="179" spans="2:29" ht="16">
       <c r="B179" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20147,7 +20165,7 @@
       <c r="U179" s="2"/>
       <c r="AC179" s="105"/>
     </row>
-    <row r="180" spans="2:29" ht="15.95">
+    <row r="180" spans="2:29" ht="16">
       <c r="B180" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20180,7 +20198,7 @@
       <c r="U180" s="2"/>
       <c r="AC180" s="105"/>
     </row>
-    <row r="181" spans="2:29" ht="32.1">
+    <row r="181" spans="2:29" ht="32">
       <c r="B181" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20213,7 +20231,7 @@
       <c r="U181" s="2"/>
       <c r="AC181" s="105"/>
     </row>
-    <row r="182" spans="2:29" ht="63.95">
+    <row r="182" spans="2:29" ht="64">
       <c r="B182" s="81" t="s">
         <v>1231</v>
       </c>
@@ -20254,7 +20272,7 @@
       <c r="U182" s="2"/>
       <c r="AC182" s="105"/>
     </row>
-    <row r="183" spans="2:29" ht="15.95">
+    <row r="183" spans="2:29" ht="16">
       <c r="B183" s="93" t="s">
         <v>1237</v>
       </c>
@@ -20295,7 +20313,7 @@
       <c r="U183" s="2"/>
       <c r="AC183" s="105"/>
     </row>
-    <row r="184" spans="2:29" ht="32.1">
+    <row r="184" spans="2:29" ht="32">
       <c r="B184" s="117" t="s">
         <v>1241</v>
       </c>
@@ -20336,7 +20354,7 @@
       <c r="U184" s="2"/>
       <c r="AC184" s="105"/>
     </row>
-    <row r="185" spans="2:29" ht="32.1">
+    <row r="185" spans="2:29" ht="32">
       <c r="B185" s="81" t="s">
         <v>1251</v>
       </c>
@@ -20377,7 +20395,7 @@
       <c r="U185" s="2"/>
       <c r="AC185" s="105"/>
     </row>
-    <row r="186" spans="2:29" ht="32.1">
+    <row r="186" spans="2:29" ht="32">
       <c r="B186" s="81" t="s">
         <v>1260</v>
       </c>
@@ -20418,7 +20436,7 @@
       <c r="U186" s="2"/>
       <c r="AC186" s="105"/>
     </row>
-    <row r="187" spans="2:29" ht="32.1">
+    <row r="187" spans="2:29" ht="32">
       <c r="B187" s="81" t="s">
         <v>1267</v>
       </c>
@@ -20459,7 +20477,7 @@
       <c r="U187" s="2"/>
       <c r="AC187" s="105"/>
     </row>
-    <row r="188" spans="2:29" ht="32.1">
+    <row r="188" spans="2:29" ht="32">
       <c r="B188" s="81" t="s">
         <v>1273</v>
       </c>
@@ -20500,7 +20518,7 @@
       <c r="U188" s="2"/>
       <c r="AC188" s="105"/>
     </row>
-    <row r="189" spans="2:29" ht="32.1">
+    <row r="189" spans="2:29" ht="32">
       <c r="B189" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20532,7 +20550,7 @@
       <c r="U189" s="2"/>
       <c r="AC189" s="105"/>
     </row>
-    <row r="190" spans="2:29" ht="15.95">
+    <row r="190" spans="2:29" ht="16">
       <c r="B190" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20564,7 +20582,7 @@
       <c r="U190" s="2"/>
       <c r="AC190" s="105"/>
     </row>
-    <row r="191" spans="2:29" ht="32.1">
+    <row r="191" spans="2:29" ht="32">
       <c r="B191" s="81" t="s">
         <v>1290</v>
       </c>
@@ -20605,7 +20623,7 @@
       <c r="U191" s="2"/>
       <c r="AC191" s="105"/>
     </row>
-    <row r="192" spans="2:29" ht="32.1">
+    <row r="192" spans="2:29" ht="32">
       <c r="B192" s="81" t="s">
         <v>1297</v>
       </c>
@@ -20643,7 +20661,7 @@
       <c r="U192" s="2"/>
       <c r="AC192" s="105"/>
     </row>
-    <row r="193" spans="2:29" ht="32.1">
+    <row r="193" spans="2:29" ht="32">
       <c r="B193" s="81" t="s">
         <v>1303</v>
       </c>
@@ -20684,7 +20702,7 @@
       <c r="U193" s="2"/>
       <c r="AC193" s="105"/>
     </row>
-    <row r="194" spans="2:29" ht="32.1">
+    <row r="194" spans="2:29" ht="32">
       <c r="B194" s="81" t="s">
         <v>1311</v>
       </c>
@@ -20725,7 +20743,7 @@
       <c r="U194" s="2"/>
       <c r="AC194" s="105"/>
     </row>
-    <row r="195" spans="2:29" ht="15.95">
+    <row r="195" spans="2:29" ht="16">
       <c r="B195" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20757,7 +20775,7 @@
       <c r="U195" s="2"/>
       <c r="AC195" s="105"/>
     </row>
-    <row r="196" spans="2:29" ht="15.95">
+    <row r="196" spans="2:29" ht="16">
       <c r="B196" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20789,7 +20807,7 @@
       <c r="U196" s="2"/>
       <c r="AC196" s="105"/>
     </row>
-    <row r="197" spans="2:29" ht="32.1">
+    <row r="197" spans="2:29" ht="32">
       <c r="B197" s="81" t="s">
         <v>1325</v>
       </c>
@@ -20827,7 +20845,7 @@
       <c r="U197" s="2"/>
       <c r="AC197" s="105"/>
     </row>
-    <row r="198" spans="2:29" ht="32.1">
+    <row r="198" spans="2:29" ht="32">
       <c r="B198" s="81" t="s">
         <v>1325</v>
       </c>
@@ -20868,7 +20886,7 @@
       <c r="U198" s="2"/>
       <c r="AC198" s="105"/>
     </row>
-    <row r="199" spans="2:29" ht="32.1">
+    <row r="199" spans="2:29" ht="32">
       <c r="B199" s="81" t="s">
         <v>1334</v>
       </c>
@@ -20909,7 +20927,7 @@
       <c r="U199" s="2"/>
       <c r="AC199" s="105"/>
     </row>
-    <row r="200" spans="2:29" ht="32.1">
+    <row r="200" spans="2:29" ht="32">
       <c r="B200" s="81" t="s">
         <v>1341</v>
       </c>
@@ -20950,7 +20968,7 @@
       <c r="U200" s="2"/>
       <c r="AC200" s="105"/>
     </row>
-    <row r="201" spans="2:29" ht="29.1">
+    <row r="201" spans="2:29" ht="29">
       <c r="B201" s="115" t="s">
         <v>1014</v>
       </c>
@@ -20979,7 +20997,7 @@
       <c r="U201" s="2"/>
       <c r="AC201" s="105"/>
     </row>
-    <row r="202" spans="2:29" ht="32.1">
+    <row r="202" spans="2:29" ht="32">
       <c r="B202" s="81" t="s">
         <v>1351</v>
       </c>
@@ -21020,7 +21038,7 @@
       <c r="U202" s="2"/>
       <c r="AC202" s="105"/>
     </row>
-    <row r="203" spans="2:29" ht="32.1">
+    <row r="203" spans="2:29" ht="32">
       <c r="B203" s="81"/>
       <c r="I203" s="93" t="s">
         <v>1244</v>
@@ -21050,7 +21068,7 @@
       <c r="U203" s="2"/>
       <c r="AC203" s="105"/>
     </row>
-    <row r="204" spans="2:29" ht="32.1">
+    <row r="204" spans="2:29" ht="32">
       <c r="B204" s="81" t="s">
         <v>553</v>
       </c>
@@ -21117,7 +21135,7 @@
       <c r="U205" s="2"/>
       <c r="AC205" s="105"/>
     </row>
-    <row r="206" spans="2:29" ht="32.1">
+    <row r="206" spans="2:29" ht="32">
       <c r="B206" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21149,7 +21167,7 @@
       <c r="U206" s="2"/>
       <c r="AC206" s="105"/>
     </row>
-    <row r="207" spans="2:29" ht="15.95">
+    <row r="207" spans="2:29" ht="16">
       <c r="B207" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21178,7 +21196,7 @@
       <c r="U207" s="2"/>
       <c r="AC207" s="106"/>
     </row>
-    <row r="208" spans="2:29" ht="15.95">
+    <row r="208" spans="2:29" ht="16">
       <c r="B208" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21207,7 +21225,7 @@
       <c r="U208" s="2"/>
       <c r="AC208" s="105"/>
     </row>
-    <row r="209" spans="2:29" ht="15.95">
+    <row r="209" spans="2:29" ht="16">
       <c r="B209" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21236,7 +21254,7 @@
       <c r="U209" s="2"/>
       <c r="AC209" s="106"/>
     </row>
-    <row r="210" spans="2:29" ht="32.1">
+    <row r="210" spans="2:29" ht="32">
       <c r="B210" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21268,7 +21286,7 @@
       <c r="U210" s="2"/>
       <c r="AC210" s="105"/>
     </row>
-    <row r="211" spans="2:29" ht="32.1">
+    <row r="211" spans="2:29" ht="32">
       <c r="B211" s="81" t="s">
         <v>1326</v>
       </c>
@@ -21306,7 +21324,7 @@
       <c r="U211" s="2"/>
       <c r="AC211" s="105"/>
     </row>
-    <row r="212" spans="2:29" ht="15.95">
+    <row r="212" spans="2:29" ht="16">
       <c r="B212" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21338,7 +21356,7 @@
       <c r="U212" s="2"/>
       <c r="AC212" s="105"/>
     </row>
-    <row r="213" spans="2:29" ht="15.95">
+    <row r="213" spans="2:29" ht="16">
       <c r="B213" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21370,7 +21388,7 @@
       <c r="U213" s="2"/>
       <c r="AC213" s="105"/>
     </row>
-    <row r="214" spans="2:29" ht="15.95">
+    <row r="214" spans="2:29" ht="16">
       <c r="B214" s="81" t="s">
         <v>1399</v>
       </c>
@@ -21411,7 +21429,7 @@
       <c r="U214" s="2"/>
       <c r="AC214" s="105"/>
     </row>
-    <row r="215" spans="2:29" ht="32.1">
+    <row r="215" spans="2:29" ht="32">
       <c r="B215" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21440,7 +21458,7 @@
       <c r="U215" s="2"/>
       <c r="AC215" s="105"/>
     </row>
-    <row r="216" spans="2:29" ht="15.95">
+    <row r="216" spans="2:29" ht="16">
       <c r="B216" s="81" t="s">
         <v>794</v>
       </c>
@@ -21481,7 +21499,7 @@
       <c r="U216" s="2"/>
       <c r="AC216" s="105"/>
     </row>
-    <row r="217" spans="2:29" ht="15.95">
+    <row r="217" spans="2:29" ht="16">
       <c r="B217" s="81" t="s">
         <v>1414</v>
       </c>
@@ -21522,7 +21540,7 @@
       <c r="U217" s="2"/>
       <c r="AC217" s="105"/>
     </row>
-    <row r="218" spans="2:29" ht="15.95">
+    <row r="218" spans="2:29" ht="16">
       <c r="B218" s="81" t="s">
         <v>1421</v>
       </c>
@@ -21563,7 +21581,7 @@
       <c r="U218" s="2"/>
       <c r="AC218" s="105"/>
     </row>
-    <row r="219" spans="2:29" ht="32.1">
+    <row r="219" spans="2:29" ht="32">
       <c r="B219" s="115" t="s">
         <v>1014</v>
       </c>
@@ -21659,7 +21677,7 @@
       <c r="U221" s="2"/>
       <c r="AC221" s="105"/>
     </row>
-    <row r="222" spans="2:29" ht="32.1">
+    <row r="222" spans="2:29" ht="32">
       <c r="B222" s="93" t="s">
         <v>1438</v>
       </c>
@@ -21741,7 +21759,7 @@
       <c r="U223" s="2"/>
       <c r="AC223" s="105"/>
     </row>
-    <row r="224" spans="2:29" ht="32.1">
+    <row r="224" spans="2:29" ht="32">
       <c r="B224" s="93" t="s">
         <v>1448</v>
       </c>
@@ -21782,7 +21800,7 @@
       <c r="U224" s="2"/>
       <c r="AC224" s="105"/>
     </row>
-    <row r="225" spans="2:29" ht="32.1">
+    <row r="225" spans="2:29" ht="32">
       <c r="B225" s="93" t="s">
         <v>1453</v>
       </c>
@@ -21864,7 +21882,7 @@
       <c r="U226" s="2"/>
       <c r="AC226" s="105"/>
     </row>
-    <row r="227" spans="2:29" ht="15.95">
+    <row r="227" spans="2:29" ht="16">
       <c r="B227" s="93" t="s">
         <v>1463</v>
       </c>
@@ -21905,7 +21923,7 @@
       <c r="U227" s="2"/>
       <c r="AC227" s="105"/>
     </row>
-    <row r="228" spans="2:29" ht="15.95">
+    <row r="228" spans="2:29" ht="16">
       <c r="B228" s="93" t="s">
         <v>1469</v>
       </c>
@@ -21946,7 +21964,7 @@
       <c r="U228" s="2"/>
       <c r="AC228" s="105"/>
     </row>
-    <row r="229" spans="2:29" ht="15.95">
+    <row r="229" spans="2:29" ht="16">
       <c r="B229" s="81"/>
       <c r="I229" s="93" t="s">
         <v>1477</v>
@@ -21976,7 +21994,7 @@
       <c r="U229" s="2"/>
       <c r="AC229" s="105"/>
     </row>
-    <row r="230" spans="2:29" ht="15.95">
+    <row r="230" spans="2:29" ht="16">
       <c r="B230" s="2" t="s">
         <v>1481</v>
       </c>
@@ -22017,7 +22035,7 @@
       <c r="U230" s="2"/>
       <c r="AC230" s="105"/>
     </row>
-    <row r="231" spans="2:29" ht="32.1">
+    <row r="231" spans="2:29" ht="32">
       <c r="B231" s="118" t="s">
         <v>1486</v>
       </c>
@@ -22055,7 +22073,7 @@
       <c r="U231" s="2"/>
       <c r="AC231" s="105"/>
     </row>
-    <row r="232" spans="2:29" ht="15.95">
+    <row r="232" spans="2:29" ht="16">
       <c r="B232" s="115" t="s">
         <v>1014</v>
       </c>
@@ -22084,7 +22102,7 @@
       <c r="U232" s="2"/>
       <c r="AC232" s="105"/>
     </row>
-    <row r="233" spans="2:29" ht="32.1">
+    <row r="233" spans="2:29" ht="32">
       <c r="B233" s="115" t="s">
         <v>1014</v>
       </c>
@@ -22116,7 +22134,7 @@
       <c r="U233" s="2"/>
       <c r="AC233" s="105"/>
     </row>
-    <row r="234" spans="2:29" ht="32.1">
+    <row r="234" spans="2:29" ht="32">
       <c r="B234" s="81" t="s">
         <v>1498</v>
       </c>
@@ -22157,7 +22175,7 @@
       <c r="U234" s="2"/>
       <c r="AC234" s="106"/>
     </row>
-    <row r="235" spans="2:29" ht="15.95">
+    <row r="235" spans="2:29" ht="16">
       <c r="B235" s="81" t="s">
         <v>1503</v>
       </c>
@@ -22198,7 +22216,7 @@
       <c r="U235" s="2"/>
       <c r="AC235" s="105"/>
     </row>
-    <row r="236" spans="2:29" ht="15.95">
+    <row r="236" spans="2:29" ht="16">
       <c r="B236" s="115" t="s">
         <v>1014</v>
       </c>
@@ -22230,7 +22248,7 @@
       <c r="U236" s="2"/>
       <c r="AC236" s="105"/>
     </row>
-    <row r="237" spans="2:29" ht="15.95">
+    <row r="237" spans="2:29" ht="16">
       <c r="B237" s="115" t="s">
         <v>1014</v>
       </c>
@@ -22288,7 +22306,7 @@
       <c r="U238" s="2"/>
       <c r="AC238" s="105"/>
     </row>
-    <row r="239" spans="2:29" ht="63.95">
+    <row r="239" spans="2:29" ht="64">
       <c r="B239" s="115" t="s">
         <v>1014</v>
       </c>
@@ -22314,7 +22332,7 @@
       <c r="U239" s="2"/>
       <c r="AC239" s="105"/>
     </row>
-    <row r="240" spans="2:29" ht="15.95">
+    <row r="240" spans="2:29" ht="32">
       <c r="B240" s="115" t="s">
         <v>1014</v>
       </c>
@@ -22340,7 +22358,7 @@
       <c r="U240" s="2"/>
       <c r="AC240" s="105"/>
     </row>
-    <row r="241" spans="2:29" ht="15.95">
+    <row r="241" spans="2:29" ht="16">
       <c r="B241" s="115" t="s">
         <v>1014</v>
       </c>
@@ -22369,11 +22387,11 @@
       <c r="U241" s="2"/>
       <c r="AC241" s="105"/>
     </row>
-    <row r="242" spans="2:29" ht="15.95">
+    <row r="242" spans="2:29" ht="16">
       <c r="B242" s="108" t="s">
         <v>1536</v>
       </c>
-      <c r="C242" s="127"/>
+      <c r="C242" s="121"/>
       <c r="D242" s="83"/>
       <c r="I242" s="108" t="s">
         <v>3</v>
@@ -22411,11 +22429,11 @@
       <c r="Z242" s="100"/>
       <c r="AC242" s="105"/>
     </row>
-    <row r="243" spans="2:29" ht="32.1">
+    <row r="243" spans="2:29" ht="32">
       <c r="B243" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C243" s="127"/>
+      <c r="C243" s="121"/>
       <c r="D243" s="83"/>
       <c r="I243" s="108" t="s">
         <v>3</v>
@@ -22423,7 +22441,7 @@
       <c r="J243" s="119" t="s">
         <v>1543</v>
       </c>
-      <c r="K243" s="127" t="s">
+      <c r="K243" s="121" t="s">
         <v>344</v>
       </c>
       <c r="L243" s="2" t="s">
@@ -22444,11 +22462,11 @@
       <c r="U243" s="2"/>
       <c r="AC243" s="105"/>
     </row>
-    <row r="244" spans="2:29" ht="15.95">
+    <row r="244" spans="2:29" ht="16">
       <c r="B244" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C244" s="127"/>
+      <c r="C244" s="121"/>
       <c r="D244" s="83"/>
       <c r="I244" s="108" t="s">
         <v>3</v>
@@ -22456,7 +22474,7 @@
       <c r="J244" s="119" t="s">
         <v>1548</v>
       </c>
-      <c r="K244" s="127" t="s">
+      <c r="K244" s="121" t="s">
         <v>344</v>
       </c>
       <c r="L244" s="2" t="s">
@@ -22477,11 +22495,11 @@
       <c r="U244" s="2"/>
       <c r="AC244" s="105"/>
     </row>
-    <row r="245" spans="2:29" ht="15.95">
+    <row r="245" spans="2:29" ht="16">
       <c r="B245" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C245" s="127"/>
+      <c r="C245" s="121"/>
       <c r="D245" s="83"/>
       <c r="I245" s="108" t="s">
         <v>3</v>
@@ -22489,7 +22507,7 @@
       <c r="J245" s="119" t="s">
         <v>1552</v>
       </c>
-      <c r="K245" s="127" t="s">
+      <c r="K245" s="121" t="s">
         <v>601</v>
       </c>
       <c r="L245" s="2" t="s">
@@ -22510,11 +22528,11 @@
       <c r="U245" s="2"/>
       <c r="AC245" s="105"/>
     </row>
-    <row r="246" spans="2:29" ht="15.95">
+    <row r="246" spans="2:29" ht="16">
       <c r="B246" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C246" s="127"/>
+      <c r="C246" s="121"/>
       <c r="D246" s="83"/>
       <c r="I246" s="108" t="s">
         <v>3</v>
@@ -22522,7 +22540,7 @@
       <c r="J246" s="119" t="s">
         <v>1557</v>
       </c>
-      <c r="K246" s="127" t="s">
+      <c r="K246" s="121" t="s">
         <v>601</v>
       </c>
       <c r="L246" s="2" t="s">
@@ -22543,11 +22561,11 @@
       <c r="U246" s="2"/>
       <c r="AC246" s="105"/>
     </row>
-    <row r="247" spans="2:29" ht="15.95">
+    <row r="247" spans="2:29" ht="16">
       <c r="B247" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C247" s="127"/>
+      <c r="C247" s="121"/>
       <c r="D247" s="83"/>
       <c r="I247" s="108" t="s">
         <v>3</v>
@@ -22555,7 +22573,7 @@
       <c r="J247" s="119" t="s">
         <v>1560</v>
       </c>
-      <c r="K247" s="127" t="s">
+      <c r="K247" s="121" t="s">
         <v>344</v>
       </c>
       <c r="L247" s="2" t="s">
@@ -22580,7 +22598,7 @@
       <c r="B248" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C248" s="127"/>
+      <c r="C248" s="121"/>
       <c r="D248" s="83"/>
       <c r="I248" s="108" t="s">
         <v>3</v>
@@ -22588,7 +22606,7 @@
       <c r="J248" s="119" t="s">
         <v>1563</v>
       </c>
-      <c r="K248" s="127" t="s">
+      <c r="K248" s="121" t="s">
         <v>344</v>
       </c>
       <c r="L248" s="2" t="s">
@@ -22613,7 +22631,7 @@
       <c r="B249" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C249" s="127"/>
+      <c r="C249" s="121"/>
       <c r="D249" s="83"/>
       <c r="I249" s="108" t="s">
         <v>3</v>
@@ -22621,7 +22639,7 @@
       <c r="J249" s="119" t="s">
         <v>1568</v>
       </c>
-      <c r="K249" s="127" t="s">
+      <c r="K249" s="121" t="s">
         <v>344</v>
       </c>
       <c r="L249" s="2" t="s">
@@ -22642,11 +22660,11 @@
       <c r="U249" s="2"/>
       <c r="AC249" s="105"/>
     </row>
-    <row r="250" spans="2:29" ht="32.1">
+    <row r="250" spans="2:29" ht="32">
       <c r="B250" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C250" s="127"/>
+      <c r="C250" s="121"/>
       <c r="D250" s="83"/>
       <c r="I250" s="108" t="s">
         <v>3</v>
@@ -22654,7 +22672,7 @@
       <c r="J250" s="119" t="s">
         <v>1572</v>
       </c>
-      <c r="K250" s="127" t="s">
+      <c r="K250" s="121" t="s">
         <v>344</v>
       </c>
       <c r="L250" s="2" t="s">
@@ -22675,11 +22693,11 @@
       <c r="U250" s="2"/>
       <c r="AC250" s="105"/>
     </row>
-    <row r="251" spans="2:29" ht="32.1">
+    <row r="251" spans="2:29" ht="32">
       <c r="B251" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="C251" s="127"/>
+      <c r="C251" s="121"/>
       <c r="D251" s="83"/>
       <c r="I251" s="108" t="s">
         <v>3</v>
@@ -22687,7 +22705,7 @@
       <c r="J251" s="119" t="s">
         <v>1577</v>
       </c>
-      <c r="K251" s="127" t="s">
+      <c r="K251" s="121" t="s">
         <v>344</v>
       </c>
       <c r="L251" s="2" t="s">
@@ -22708,7 +22726,7 @@
       <c r="U251" s="2"/>
       <c r="AC251" s="105"/>
     </row>
-    <row r="252" spans="2:29" ht="60.75">
+    <row r="252" spans="2:29" ht="80">
       <c r="B252" s="93" t="s">
         <v>1581</v>
       </c>
@@ -22749,7 +22767,7 @@
       <c r="U252" s="2"/>
       <c r="AC252" s="105"/>
     </row>
-    <row r="253" spans="2:29" ht="60.75">
+    <row r="253" spans="2:29" ht="80">
       <c r="B253" s="93" t="s">
         <v>523</v>
       </c>
@@ -22790,7 +22808,7 @@
       <c r="U253" s="2"/>
       <c r="AC253" s="105"/>
     </row>
-    <row r="254" spans="2:29" ht="60.75">
+    <row r="254" spans="2:29" ht="80">
       <c r="B254" s="93" t="s">
         <v>531</v>
       </c>
@@ -22831,7 +22849,7 @@
       <c r="U254" s="2"/>
       <c r="AC254" s="105"/>
     </row>
-    <row r="255" spans="2:29" ht="60.75">
+    <row r="255" spans="2:29" ht="80">
       <c r="B255" s="93" t="s">
         <v>536</v>
       </c>
@@ -22872,7 +22890,7 @@
       <c r="U255" s="2"/>
       <c r="AC255" s="105"/>
     </row>
-    <row r="256" spans="2:29" ht="60.75">
+    <row r="256" spans="2:29" ht="80">
       <c r="B256" s="93" t="s">
         <v>541</v>
       </c>
@@ -22913,7 +22931,7 @@
       <c r="U256" s="2"/>
       <c r="AC256" s="105"/>
     </row>
-    <row r="257" spans="2:29" ht="60.75">
+    <row r="257" spans="2:29" ht="80">
       <c r="B257" s="93" t="s">
         <v>548</v>
       </c>
@@ -22954,7 +22972,7 @@
       <c r="U257" s="2"/>
       <c r="AC257" s="105"/>
     </row>
-    <row r="258" spans="2:29" ht="76.5">
+    <row r="258" spans="2:29" ht="96">
       <c r="B258" s="93" t="s">
         <v>553</v>
       </c>
@@ -22995,7 +23013,7 @@
       <c r="U258" s="2"/>
       <c r="AC258" s="105"/>
     </row>
-    <row r="259" spans="2:29" ht="76.5">
+    <row r="259" spans="2:29" ht="96">
       <c r="B259" s="93" t="s">
         <v>560</v>
       </c>
@@ -23036,7 +23054,7 @@
       <c r="U259" s="2"/>
       <c r="AC259" s="105"/>
     </row>
-    <row r="260" spans="2:29" ht="91.5">
+    <row r="260" spans="2:29" ht="96">
       <c r="B260" s="93" t="s">
         <v>565</v>
       </c>
@@ -23077,7 +23095,7 @@
       <c r="U260" s="2"/>
       <c r="AC260" s="105"/>
     </row>
-    <row r="261" spans="2:29" ht="91.5">
+    <row r="261" spans="2:29" ht="96">
       <c r="B261" s="93" t="s">
         <v>570</v>
       </c>
@@ -23118,7 +23136,7 @@
       <c r="U261" s="2"/>
       <c r="AC261" s="105"/>
     </row>
-    <row r="262" spans="2:29" ht="91.5">
+    <row r="262" spans="2:29" ht="96">
       <c r="B262" s="93" t="s">
         <v>574</v>
       </c>
@@ -23159,7 +23177,7 @@
       <c r="U262" s="2"/>
       <c r="AC262" s="105"/>
     </row>
-    <row r="263" spans="2:29" ht="91.5">
+    <row r="263" spans="2:29" ht="112">
       <c r="B263" s="115" t="s">
         <v>581</v>
       </c>
@@ -23191,7 +23209,7 @@
       <c r="U263" s="2"/>
       <c r="AC263" s="105"/>
     </row>
-    <row r="264" spans="2:29" ht="91.5">
+    <row r="264" spans="2:29" ht="112">
       <c r="B264" s="115" t="s">
         <v>581</v>
       </c>
@@ -23223,7 +23241,7 @@
       <c r="U264" s="2"/>
       <c r="AC264" s="105"/>
     </row>
-    <row r="265" spans="2:29" ht="91.5">
+    <row r="265" spans="2:29" ht="112">
       <c r="B265" s="115" t="s">
         <v>581</v>
       </c>
@@ -23255,7 +23273,7 @@
       <c r="U265" s="2"/>
       <c r="AC265" s="105"/>
     </row>
-    <row r="266" spans="2:29" ht="91.5">
+    <row r="266" spans="2:29" ht="112">
       <c r="B266" s="81" t="s">
         <v>624</v>
       </c>
@@ -23296,7 +23314,7 @@
       <c r="U266" s="2"/>
       <c r="AC266" s="105"/>
     </row>
-    <row r="267" spans="2:29" ht="76.5">
+    <row r="267" spans="2:29" ht="112">
       <c r="B267" s="116" t="s">
         <v>581</v>
       </c>
@@ -23328,7 +23346,7 @@
       <c r="U267" s="2"/>
       <c r="AC267" s="105"/>
     </row>
-    <row r="268" spans="2:29" ht="76.5">
+    <row r="268" spans="2:29" ht="112">
       <c r="B268" s="81" t="s">
         <v>634</v>
       </c>
@@ -23369,7 +23387,7 @@
       <c r="U268" s="2"/>
       <c r="AC268" s="105"/>
     </row>
-    <row r="269" spans="2:29" ht="76.5">
+    <row r="269" spans="2:29" ht="112">
       <c r="B269" s="81" t="s">
         <v>669</v>
       </c>
@@ -23410,7 +23428,7 @@
       <c r="U269" s="2"/>
       <c r="AC269" s="105"/>
     </row>
-    <row r="270" spans="2:29" ht="76.5">
+    <row r="270" spans="2:29" ht="112">
       <c r="B270" s="81" t="s">
         <v>679</v>
       </c>
@@ -23451,7 +23469,7 @@
       <c r="U270" s="2"/>
       <c r="AC270" s="105"/>
     </row>
-    <row r="271" spans="2:29" ht="91.5">
+    <row r="271" spans="2:29" ht="96">
       <c r="B271" s="81" t="s">
         <v>687</v>
       </c>
@@ -23492,7 +23510,7 @@
       <c r="U271" s="2"/>
       <c r="AC271" s="105"/>
     </row>
-    <row r="272" spans="2:29" ht="76.5">
+    <row r="272" spans="2:29" ht="96">
       <c r="B272" s="81" t="s">
         <v>693</v>
       </c>
@@ -23533,7 +23551,7 @@
       <c r="U272" s="2"/>
       <c r="AC272" s="105"/>
     </row>
-    <row r="273" spans="2:29" ht="60.75">
+    <row r="273" spans="2:29" ht="80">
       <c r="B273" s="115" t="s">
         <v>581</v>
       </c>
@@ -23565,7 +23583,7 @@
       <c r="U273" s="2"/>
       <c r="AC273" s="105"/>
     </row>
-    <row r="274" spans="2:29" ht="91.5">
+    <row r="274" spans="2:29" ht="96">
       <c r="B274" s="115" t="s">
         <v>581</v>
       </c>
@@ -23597,7 +23615,7 @@
       <c r="U274" s="2"/>
       <c r="AC274" s="105"/>
     </row>
-    <row r="275" spans="2:29" ht="100.5">
+    <row r="275" spans="2:29" ht="96">
       <c r="B275" s="115" t="s">
         <v>581</v>
       </c>
@@ -23626,7 +23644,7 @@
       <c r="U275" s="2"/>
       <c r="AC275" s="105"/>
     </row>
-    <row r="276" spans="2:29" ht="76.5">
+    <row r="276" spans="2:29" ht="80">
       <c r="B276" s="81" t="s">
         <v>712</v>
       </c>
@@ -23667,7 +23685,7 @@
       <c r="U276" s="2"/>
       <c r="AC276" s="105"/>
     </row>
-    <row r="277" spans="2:29" ht="76.5">
+    <row r="277" spans="2:29" ht="80">
       <c r="B277" s="81" t="s">
         <v>718</v>
       </c>
@@ -23708,7 +23726,7 @@
       <c r="U277" s="2"/>
       <c r="AC277" s="105"/>
     </row>
-    <row r="278" spans="2:29" ht="76.5">
+    <row r="278" spans="2:29" ht="112">
       <c r="B278" s="81" t="s">
         <v>624</v>
       </c>
@@ -23749,7 +23767,7 @@
       <c r="U278" s="2"/>
       <c r="AC278" s="105"/>
     </row>
-    <row r="279" spans="2:29" ht="60.75">
+    <row r="279" spans="2:29" ht="80">
       <c r="B279" s="115" t="s">
         <v>581</v>
       </c>
@@ -23781,7 +23799,7 @@
       <c r="U279" s="2"/>
       <c r="AC279" s="105"/>
     </row>
-    <row r="280" spans="2:29" ht="76.5">
+    <row r="280" spans="2:29" ht="80">
       <c r="B280" s="115" t="s">
         <v>581</v>
       </c>
@@ -23813,7 +23831,7 @@
       <c r="U280" s="2"/>
       <c r="AC280" s="105"/>
     </row>
-    <row r="281" spans="2:29" ht="76.5">
+    <row r="281" spans="2:29" ht="112">
       <c r="B281" s="115" t="s">
         <v>581</v>
       </c>
@@ -23845,7 +23863,7 @@
       <c r="U281" s="2"/>
       <c r="AC281" s="105"/>
     </row>
-    <row r="282" spans="2:29" ht="84">
+    <row r="282" spans="2:29" ht="96">
       <c r="B282" s="115" t="s">
         <v>581</v>
       </c>
@@ -23877,7 +23895,7 @@
       <c r="U282" s="2"/>
       <c r="AC282" s="105"/>
     </row>
-    <row r="283" spans="2:29" ht="100.5">
+    <row r="283" spans="2:29" ht="112">
       <c r="B283" s="115" t="s">
         <v>581</v>
       </c>
@@ -23909,7 +23927,7 @@
       <c r="U283" s="2"/>
       <c r="AC283" s="105"/>
     </row>
-    <row r="284" spans="2:29" ht="76.5">
+    <row r="284" spans="2:29" ht="112">
       <c r="B284" s="115" t="s">
         <v>581</v>
       </c>
@@ -23941,7 +23959,7 @@
       <c r="U284" s="2"/>
       <c r="AC284" s="105"/>
     </row>
-    <row r="285" spans="2:29" ht="76.5">
+    <row r="285" spans="2:29" ht="112">
       <c r="B285" s="81" t="s">
         <v>757</v>
       </c>
@@ -23982,7 +24000,7 @@
       <c r="U285" s="2"/>
       <c r="AC285" s="105"/>
     </row>
-    <row r="286" spans="2:29" ht="91.5">
+    <row r="286" spans="2:29" ht="96">
       <c r="B286" s="115" t="s">
         <v>581</v>
       </c>
@@ -24014,7 +24032,7 @@
       <c r="U286" s="2"/>
       <c r="AC286" s="105"/>
     </row>
-    <row r="287" spans="2:29" ht="60.75">
+    <row r="287" spans="2:29" ht="80">
       <c r="B287" s="115" t="s">
         <v>581</v>
       </c>
@@ -24043,7 +24061,7 @@
       <c r="U287" s="2"/>
       <c r="AC287" s="105"/>
     </row>
-    <row r="288" spans="2:29" ht="60.75">
+    <row r="288" spans="2:29" ht="80">
       <c r="B288" s="115" t="s">
         <v>581</v>
       </c>
@@ -24075,7 +24093,7 @@
       <c r="U288" s="2"/>
       <c r="AC288" s="105"/>
     </row>
-    <row r="289" spans="2:29" ht="60.75">
+    <row r="289" spans="2:29" ht="80">
       <c r="B289" s="115" t="s">
         <v>581</v>
       </c>
@@ -24107,7 +24125,7 @@
       <c r="U289" s="2"/>
       <c r="AC289" s="105"/>
     </row>
-    <row r="290" spans="2:29" ht="91.5">
+    <row r="290" spans="2:29" ht="96">
       <c r="B290" s="115" t="s">
         <v>581</v>
       </c>
@@ -24139,7 +24157,7 @@
       <c r="U290" s="2"/>
       <c r="AC290" s="105"/>
     </row>
-    <row r="291" spans="2:29" ht="91.5">
+    <row r="291" spans="2:29" ht="96">
       <c r="B291" s="115" t="s">
         <v>581</v>
       </c>
@@ -24168,7 +24186,7 @@
       <c r="U291" s="2"/>
       <c r="AC291" s="105"/>
     </row>
-    <row r="292" spans="2:29" ht="76.5">
+    <row r="292" spans="2:29" ht="96">
       <c r="B292" s="115" t="s">
         <v>581</v>
       </c>
@@ -24197,7 +24215,7 @@
       <c r="U292" s="2"/>
       <c r="AC292" s="105"/>
     </row>
-    <row r="293" spans="2:29" ht="76.5">
+    <row r="293" spans="2:29" ht="96">
       <c r="B293" s="115" t="s">
         <v>581</v>
       </c>
@@ -24226,7 +24244,7 @@
       <c r="U293" s="2"/>
       <c r="AC293" s="105"/>
     </row>
-    <row r="294" spans="2:29" ht="76.5">
+    <row r="294" spans="2:29" ht="80">
       <c r="B294" s="81" t="s">
         <v>978</v>
       </c>
@@ -24264,7 +24282,7 @@
       <c r="U294" s="2"/>
       <c r="AC294" s="105"/>
     </row>
-    <row r="295" spans="2:29" ht="76.5">
+    <row r="295" spans="2:29" ht="80">
       <c r="B295" s="81" t="s">
         <v>987</v>
       </c>
@@ -24302,7 +24320,7 @@
       <c r="U295" s="2"/>
       <c r="AC295" s="105"/>
     </row>
-    <row r="296" spans="2:29" ht="76.5">
+    <row r="296" spans="2:29" ht="80">
       <c r="B296" s="81" t="s">
         <v>978</v>
       </c>
@@ -24340,7 +24358,7 @@
       <c r="U296" s="2"/>
       <c r="AC296" s="105"/>
     </row>
-    <row r="297" spans="2:29" ht="76.5">
+    <row r="297" spans="2:29" ht="80">
       <c r="B297" s="81" t="s">
         <v>994</v>
       </c>
@@ -24378,7 +24396,7 @@
       <c r="U297" s="2"/>
       <c r="AC297" s="105"/>
     </row>
-    <row r="298" spans="2:29" ht="76.5">
+    <row r="298" spans="2:29" ht="80">
       <c r="B298" s="81" t="s">
         <v>987</v>
       </c>
@@ -24416,7 +24434,7 @@
       <c r="U298" s="2"/>
       <c r="AC298" s="105"/>
     </row>
-    <row r="299" spans="2:29" ht="76.5">
+    <row r="299" spans="2:29" ht="112">
       <c r="B299" s="81" t="s">
         <v>1001</v>
       </c>
@@ -24457,7 +24475,7 @@
       <c r="U299" s="2"/>
       <c r="AC299" s="105"/>
     </row>
-    <row r="300" spans="2:29" ht="117">
+    <row r="300" spans="2:29" ht="128">
       <c r="B300" s="81" t="s">
         <v>1007</v>
       </c>
@@ -24498,7 +24516,7 @@
       <c r="U300" s="2"/>
       <c r="AC300" s="105"/>
     </row>
-    <row r="301" spans="2:29" ht="100.5">
+    <row r="301" spans="2:29" ht="112">
       <c r="B301" s="115" t="s">
         <v>1014</v>
       </c>
@@ -24530,7 +24548,7 @@
       <c r="U301" s="2"/>
       <c r="AC301" s="105"/>
     </row>
-    <row r="302" spans="2:29" ht="84">
+    <row r="302" spans="2:29" ht="96">
       <c r="B302" s="81" t="s">
         <v>1020</v>
       </c>
@@ -24568,7 +24586,7 @@
       <c r="U302" s="2"/>
       <c r="AC302" s="105"/>
     </row>
-    <row r="303" spans="2:29" ht="100.5">
+    <row r="303" spans="2:29" ht="112">
       <c r="B303" s="115" t="s">
         <v>1014</v>
       </c>
@@ -24597,7 +24615,7 @@
       <c r="U303" s="2"/>
       <c r="AC303" s="105"/>
     </row>
-    <row r="304" spans="2:29" ht="100.5">
+    <row r="304" spans="2:29" ht="96">
       <c r="B304" s="115" t="s">
         <v>1014</v>
       </c>
@@ -24629,7 +24647,7 @@
       <c r="U304" s="2"/>
       <c r="AC304" s="105"/>
     </row>
-    <row r="305" spans="2:29" ht="100.5">
+    <row r="305" spans="2:29" ht="96">
       <c r="B305" s="115" t="s">
         <v>1014</v>
       </c>
@@ -24661,7 +24679,7 @@
       <c r="U305" s="2"/>
       <c r="AC305" s="105"/>
     </row>
-    <row r="306" spans="2:29" ht="100.5">
+    <row r="306" spans="2:29" ht="112">
       <c r="B306" s="115" t="s">
         <v>1014</v>
       </c>
@@ -24693,7 +24711,7 @@
       <c r="U306" s="2"/>
       <c r="AC306" s="83"/>
     </row>
-    <row r="307" spans="2:29" ht="100.5">
+    <row r="307" spans="2:29" ht="112">
       <c r="B307" s="115" t="s">
         <v>1014</v>
       </c>
@@ -24725,7 +24743,7 @@
       <c r="U307" s="2"/>
       <c r="AC307" s="105"/>
     </row>
-    <row r="308" spans="2:29" ht="60.75">
+    <row r="308" spans="2:29" ht="80">
       <c r="B308" s="81" t="s">
         <v>1076</v>
       </c>
@@ -24766,7 +24784,7 @@
       <c r="U308" s="2"/>
       <c r="AC308" s="106"/>
     </row>
-    <row r="309" spans="2:29" ht="76.5">
+    <row r="309" spans="2:29" ht="96">
       <c r="B309" s="81" t="s">
         <v>1082</v>
       </c>
@@ -24804,7 +24822,7 @@
       <c r="U309" s="2"/>
       <c r="AC309" s="105"/>
     </row>
-    <row r="310" spans="2:29" ht="60.75">
+    <row r="310" spans="2:29" ht="80">
       <c r="B310" s="81" t="s">
         <v>1086</v>
       </c>
@@ -24845,7 +24863,7 @@
       <c r="U310" s="2"/>
       <c r="AC310" s="105"/>
     </row>
-    <row r="311" spans="2:29" ht="60.75">
+    <row r="311" spans="2:29" ht="80">
       <c r="B311" s="81" t="s">
         <v>1092</v>
       </c>
@@ -24886,7 +24904,7 @@
       <c r="U311" s="2"/>
       <c r="AC311" s="105"/>
     </row>
-    <row r="312" spans="2:29" ht="60.75">
+    <row r="312" spans="2:29" ht="80">
       <c r="B312" s="81" t="s">
         <v>1098</v>
       </c>
@@ -24927,7 +24945,7 @@
       <c r="U312" s="2"/>
       <c r="AC312" s="105"/>
     </row>
-    <row r="313" spans="2:29" ht="76.5">
+    <row r="313" spans="2:29" ht="96">
       <c r="B313" s="81" t="s">
         <v>1104</v>
       </c>
@@ -24965,7 +24983,7 @@
       <c r="U313" s="2"/>
       <c r="AC313" s="105"/>
     </row>
-    <row r="314" spans="2:29" ht="60.75">
+    <row r="314" spans="2:29" ht="80">
       <c r="B314" s="81" t="s">
         <v>1110</v>
       </c>
@@ -25006,7 +25024,7 @@
       <c r="U314" s="2"/>
       <c r="AC314" s="105"/>
     </row>
-    <row r="315" spans="2:29" ht="76.5">
+    <row r="315" spans="2:29" ht="112">
       <c r="B315" s="81" t="s">
         <v>1044</v>
       </c>
@@ -25047,7 +25065,7 @@
       <c r="U315" s="2"/>
       <c r="AC315" s="105"/>
     </row>
-    <row r="316" spans="2:29" ht="76.5">
+    <row r="316" spans="2:29" ht="112">
       <c r="B316" s="81" t="s">
         <v>1120</v>
       </c>
@@ -25088,7 +25106,7 @@
       <c r="U316" s="2"/>
       <c r="AC316" s="105"/>
     </row>
-    <row r="317" spans="2:29" ht="76.5">
+    <row r="317" spans="2:29" ht="112">
       <c r="B317" s="81" t="s">
         <v>1126</v>
       </c>
@@ -25129,7 +25147,7 @@
       <c r="U317" s="2"/>
       <c r="AC317" s="105"/>
     </row>
-    <row r="318" spans="2:29" ht="76.5">
+    <row r="318" spans="2:29" ht="112">
       <c r="B318" s="81" t="s">
         <v>1130</v>
       </c>
@@ -25170,7 +25188,7 @@
       <c r="U318" s="2"/>
       <c r="AC318" s="105"/>
     </row>
-    <row r="319" spans="2:29" ht="76.5">
+    <row r="319" spans="2:29" ht="112">
       <c r="B319" s="81" t="s">
         <v>1136</v>
       </c>
@@ -25208,7 +25226,7 @@
       <c r="U319" s="2"/>
       <c r="AC319" s="105"/>
     </row>
-    <row r="320" spans="2:29" ht="76.5">
+    <row r="320" spans="2:29" ht="112">
       <c r="B320" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25240,7 +25258,7 @@
       <c r="U320" s="2"/>
       <c r="AC320" s="105"/>
     </row>
-    <row r="321" spans="2:29" ht="76.5">
+    <row r="321" spans="2:29" ht="112">
       <c r="B321" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25272,7 +25290,7 @@
       <c r="U321" s="2"/>
       <c r="AC321" s="105"/>
     </row>
-    <row r="322" spans="2:29" ht="76.5">
+    <row r="322" spans="2:29" ht="112">
       <c r="B322" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25304,7 +25322,7 @@
       <c r="U322" s="2"/>
       <c r="AC322" s="105"/>
     </row>
-    <row r="323" spans="2:29" ht="76.5">
+    <row r="323" spans="2:29" ht="112">
       <c r="B323" s="81" t="s">
         <v>1151</v>
       </c>
@@ -25345,7 +25363,7 @@
       <c r="U323" s="2"/>
       <c r="AC323" s="105"/>
     </row>
-    <row r="324" spans="2:29" ht="76.5">
+    <row r="324" spans="2:29" ht="112">
       <c r="B324" s="81" t="s">
         <v>1155</v>
       </c>
@@ -25386,7 +25404,7 @@
       <c r="U324" s="2"/>
       <c r="AC324" s="105"/>
     </row>
-    <row r="325" spans="2:29" ht="91.5">
+    <row r="325" spans="2:29" ht="112">
       <c r="B325" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25418,7 +25436,7 @@
       <c r="U325" s="2"/>
       <c r="AC325" s="105"/>
     </row>
-    <row r="326" spans="2:29" ht="91.5">
+    <row r="326" spans="2:29" ht="112">
       <c r="B326" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25450,7 +25468,7 @@
       <c r="U326" s="2"/>
       <c r="AC326" s="105"/>
     </row>
-    <row r="327" spans="2:29" ht="76.5">
+    <row r="327" spans="2:29" ht="112">
       <c r="B327" s="81" t="s">
         <v>1163</v>
       </c>
@@ -25491,7 +25509,7 @@
       <c r="U327" s="2"/>
       <c r="AC327" s="105"/>
     </row>
-    <row r="328" spans="2:29" ht="76.5">
+    <row r="328" spans="2:29" ht="112">
       <c r="B328" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25523,7 +25541,7 @@
       <c r="U328" s="2"/>
       <c r="AC328" s="105"/>
     </row>
-    <row r="329" spans="2:29" ht="76.5">
+    <row r="329" spans="2:29" ht="96">
       <c r="B329" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25555,7 +25573,7 @@
       <c r="U329" s="2"/>
       <c r="AC329" s="105"/>
     </row>
-    <row r="330" spans="2:29" ht="76.5">
+    <row r="330" spans="2:29" ht="80">
       <c r="B330" s="81" t="s">
         <v>972</v>
       </c>
@@ -25587,7 +25605,7 @@
       <c r="U330" s="2"/>
       <c r="AC330" s="105"/>
     </row>
-    <row r="331" spans="2:29" ht="76.5">
+    <row r="331" spans="2:29" ht="80">
       <c r="B331" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25619,7 +25637,7 @@
       <c r="U331" s="2"/>
       <c r="AC331" s="105"/>
     </row>
-    <row r="332" spans="2:29" ht="76.5">
+    <row r="332" spans="2:29" ht="80">
       <c r="B332" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25651,7 +25669,7 @@
       <c r="U332" s="2"/>
       <c r="AC332" s="105"/>
     </row>
-    <row r="333" spans="2:29" ht="76.5">
+    <row r="333" spans="2:29" ht="80">
       <c r="B333" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25683,7 +25701,7 @@
       <c r="U333" s="2"/>
       <c r="AC333" s="105"/>
     </row>
-    <row r="334" spans="2:29" ht="76.5">
+    <row r="334" spans="2:29" ht="80">
       <c r="B334" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25715,7 +25733,7 @@
       <c r="U334" s="2"/>
       <c r="AC334" s="105"/>
     </row>
-    <row r="335" spans="2:29" ht="60.75">
+    <row r="335" spans="2:29" ht="80">
       <c r="B335" s="117" t="s">
         <v>1241</v>
       </c>
@@ -25756,7 +25774,7 @@
       <c r="U335" s="2"/>
       <c r="AC335" s="105"/>
     </row>
-    <row r="336" spans="2:29" ht="60.75">
+    <row r="336" spans="2:29" ht="80">
       <c r="B336" s="81" t="s">
         <v>1251</v>
       </c>
@@ -25797,7 +25815,7 @@
       <c r="U336" s="2"/>
       <c r="AC336" s="105"/>
     </row>
-    <row r="337" spans="2:29" ht="60.75">
+    <row r="337" spans="2:29" ht="80">
       <c r="B337" s="81" t="s">
         <v>1260</v>
       </c>
@@ -25838,7 +25856,7 @@
       <c r="U337" s="2"/>
       <c r="AC337" s="105"/>
     </row>
-    <row r="338" spans="2:29" ht="60.75">
+    <row r="338" spans="2:29" ht="80">
       <c r="B338" s="81" t="s">
         <v>1267</v>
       </c>
@@ -25879,7 +25897,7 @@
       <c r="U338" s="2"/>
       <c r="AC338" s="105"/>
     </row>
-    <row r="339" spans="2:29" ht="60.75">
+    <row r="339" spans="2:29" ht="80">
       <c r="B339" s="81" t="s">
         <v>1273</v>
       </c>
@@ -25920,7 +25938,7 @@
       <c r="U339" s="2"/>
       <c r="AC339" s="105"/>
     </row>
-    <row r="340" spans="2:29" ht="60.75">
+    <row r="340" spans="2:29" ht="80">
       <c r="B340" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25952,7 +25970,7 @@
       <c r="U340" s="2"/>
       <c r="AC340" s="105"/>
     </row>
-    <row r="341" spans="2:29" ht="60.75">
+    <row r="341" spans="2:29" ht="80">
       <c r="B341" s="115" t="s">
         <v>1014</v>
       </c>
@@ -25984,7 +26002,7 @@
       <c r="U341" s="2"/>
       <c r="AC341" s="105"/>
     </row>
-    <row r="342" spans="2:29" ht="76.5">
+    <row r="342" spans="2:29" ht="80">
       <c r="B342" s="81" t="s">
         <v>1290</v>
       </c>
@@ -26025,7 +26043,7 @@
       <c r="U342" s="2"/>
       <c r="AC342" s="105"/>
     </row>
-    <row r="343" spans="2:29" ht="66.75">
+    <row r="343" spans="2:29" ht="80">
       <c r="B343" s="81" t="s">
         <v>1297</v>
       </c>
@@ -26063,7 +26081,7 @@
       <c r="U343" s="2"/>
       <c r="AC343" s="105"/>
     </row>
-    <row r="344" spans="2:29" ht="66.75">
+    <row r="344" spans="2:29" ht="80">
       <c r="B344" s="81" t="s">
         <v>1303</v>
       </c>
@@ -26104,7 +26122,7 @@
       <c r="U344" s="2"/>
       <c r="AC344" s="105"/>
     </row>
-    <row r="345" spans="2:29" ht="84">
+    <row r="345" spans="2:29" ht="96">
       <c r="B345" s="81" t="s">
         <v>1311</v>
       </c>
@@ -26145,7 +26163,7 @@
       <c r="U345" s="2"/>
       <c r="AC345" s="105"/>
     </row>
-    <row r="346" spans="2:29" ht="60.75">
+    <row r="346" spans="2:29" ht="80">
       <c r="B346" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26177,7 +26195,7 @@
       <c r="U346" s="2"/>
       <c r="AC346" s="105"/>
     </row>
-    <row r="347" spans="2:29" ht="60.75">
+    <row r="347" spans="2:29" ht="80">
       <c r="B347" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26209,7 +26227,7 @@
       <c r="U347" s="2"/>
       <c r="AC347" s="105"/>
     </row>
-    <row r="348" spans="2:29" ht="66.75">
+    <row r="348" spans="2:29" ht="80">
       <c r="B348" s="81" t="s">
         <v>1325</v>
       </c>
@@ -26247,7 +26265,7 @@
       <c r="U348" s="2"/>
       <c r="AC348" s="105"/>
     </row>
-    <row r="349" spans="2:29" ht="66.75">
+    <row r="349" spans="2:29" ht="80">
       <c r="B349" s="81" t="s">
         <v>1325</v>
       </c>
@@ -26288,7 +26306,7 @@
       <c r="U349" s="2"/>
       <c r="AC349" s="105"/>
     </row>
-    <row r="350" spans="2:29" ht="60.75">
+    <row r="350" spans="2:29" ht="80">
       <c r="B350" s="81" t="s">
         <v>1334</v>
       </c>
@@ -26329,7 +26347,7 @@
       <c r="U350" s="2"/>
       <c r="AC350" s="105"/>
     </row>
-    <row r="351" spans="2:29" ht="60.75">
+    <row r="351" spans="2:29" ht="80">
       <c r="B351" s="81" t="s">
         <v>1341</v>
       </c>
@@ -26370,7 +26388,7 @@
       <c r="U351" s="2"/>
       <c r="AC351" s="105"/>
     </row>
-    <row r="352" spans="2:29" ht="76.5">
+    <row r="352" spans="2:29" ht="80">
       <c r="B352" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26399,7 +26417,7 @@
       <c r="U352" s="2"/>
       <c r="AC352" s="105"/>
     </row>
-    <row r="353" spans="2:29" ht="60.75">
+    <row r="353" spans="2:29" ht="80">
       <c r="B353" s="81" t="s">
         <v>1351</v>
       </c>
@@ -26440,7 +26458,7 @@
       <c r="U353" s="2"/>
       <c r="AC353" s="105"/>
     </row>
-    <row r="354" spans="2:29" ht="60.75">
+    <row r="354" spans="2:29" ht="80">
       <c r="B354" s="81"/>
       <c r="I354" s="93" t="s">
         <v>1244</v>
@@ -26470,7 +26488,7 @@
       <c r="U354" s="2"/>
       <c r="AC354" s="105"/>
     </row>
-    <row r="355" spans="2:29" ht="60.75">
+    <row r="355" spans="2:29" ht="80">
       <c r="B355" s="81" t="s">
         <v>553</v>
       </c>
@@ -26508,7 +26526,7 @@
       <c r="U355" s="2"/>
       <c r="AC355" s="105"/>
     </row>
-    <row r="356" spans="2:29" ht="76.5">
+    <row r="356" spans="2:29" ht="96">
       <c r="B356" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26537,7 +26555,7 @@
       <c r="U356" s="2"/>
       <c r="AC356" s="105"/>
     </row>
-    <row r="357" spans="2:29" ht="60.75">
+    <row r="357" spans="2:29" ht="80">
       <c r="B357" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26569,7 +26587,7 @@
       <c r="U357" s="2"/>
       <c r="AC357" s="105"/>
     </row>
-    <row r="358" spans="2:29" ht="84">
+    <row r="358" spans="2:29" ht="96">
       <c r="B358" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26598,7 +26616,7 @@
       <c r="U358" s="2"/>
       <c r="AC358" s="106"/>
     </row>
-    <row r="359" spans="2:29" ht="76.5">
+    <row r="359" spans="2:29" ht="96">
       <c r="B359" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26627,7 +26645,7 @@
       <c r="U359" s="2"/>
       <c r="AC359" s="105"/>
     </row>
-    <row r="360" spans="2:29" ht="84">
+    <row r="360" spans="2:29" ht="96">
       <c r="B360" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26656,7 +26674,7 @@
       <c r="U360" s="2"/>
       <c r="AC360" s="106"/>
     </row>
-    <row r="361" spans="2:29" ht="76.5">
+    <row r="361" spans="2:29" ht="80">
       <c r="B361" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26688,7 +26706,7 @@
       <c r="U361" s="2"/>
       <c r="AC361" s="105"/>
     </row>
-    <row r="362" spans="2:29" ht="60.75">
+    <row r="362" spans="2:29" ht="80">
       <c r="B362" s="81" t="s">
         <v>1326</v>
       </c>
@@ -26726,7 +26744,7 @@
       <c r="U362" s="2"/>
       <c r="AC362" s="105"/>
     </row>
-    <row r="363" spans="2:29" ht="76.5">
+    <row r="363" spans="2:29" ht="80">
       <c r="B363" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26758,7 +26776,7 @@
       <c r="U363" s="2"/>
       <c r="AC363" s="105"/>
     </row>
-    <row r="364" spans="2:29" ht="76.5">
+    <row r="364" spans="2:29" ht="96">
       <c r="B364" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26790,7 +26808,7 @@
       <c r="U364" s="2"/>
       <c r="AC364" s="105"/>
     </row>
-    <row r="365" spans="2:29" ht="84">
+    <row r="365" spans="2:29" ht="96">
       <c r="B365" s="81"/>
       <c r="I365" s="93" t="s">
         <v>1477</v>
@@ -26820,7 +26838,7 @@
       <c r="U365" s="2"/>
       <c r="AC365" s="105"/>
     </row>
-    <row r="366" spans="2:29" ht="60.75">
+    <row r="366" spans="2:29" ht="80">
       <c r="B366" s="2" t="s">
         <v>1481</v>
       </c>
@@ -26861,7 +26879,7 @@
       <c r="U366" s="2"/>
       <c r="AC366" s="105"/>
     </row>
-    <row r="367" spans="2:29" ht="84">
+    <row r="367" spans="2:29" ht="80">
       <c r="B367" s="118" t="s">
         <v>1486</v>
       </c>
@@ -26899,7 +26917,7 @@
       <c r="U367" s="2"/>
       <c r="AC367" s="105"/>
     </row>
-    <row r="368" spans="2:29" ht="76.5">
+    <row r="368" spans="2:29" ht="80">
       <c r="B368" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26928,7 +26946,7 @@
       <c r="U368" s="2"/>
       <c r="AC368" s="105"/>
     </row>
-    <row r="369" spans="2:29" ht="76.5">
+    <row r="369" spans="2:29" ht="80">
       <c r="B369" s="115" t="s">
         <v>1014</v>
       </c>
@@ -26960,7 +26978,7 @@
       <c r="U369" s="2"/>
       <c r="AC369" s="105"/>
     </row>
-    <row r="370" spans="2:29" ht="60.75">
+    <row r="370" spans="2:29" ht="80">
       <c r="B370" s="81" t="s">
         <v>1498</v>
       </c>
@@ -27001,7 +27019,7 @@
       <c r="U370" s="2"/>
       <c r="AC370" s="106"/>
     </row>
-    <row r="371" spans="2:29" ht="76.5">
+    <row r="371" spans="2:29" ht="96">
       <c r="B371" s="81" t="s">
         <v>1503</v>
       </c>
@@ -27042,7 +27060,7 @@
       <c r="U371" s="2"/>
       <c r="AC371" s="105"/>
     </row>
-    <row r="372" spans="2:29" ht="60.75">
+    <row r="372" spans="2:29" ht="80">
       <c r="B372" s="115" t="s">
         <v>1014</v>
       </c>
@@ -27073,12 +27091,53 @@
       <c r="R372" s="105"/>
       <c r="U372" s="2"/>
       <c r="AC372" s="105"/>
+    </row>
+    <row r="373" spans="2:29" ht="16">
+      <c r="B373" s="81" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E373" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I373" s="93" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J373" s="93" t="s">
+        <v>2089</v>
+      </c>
+      <c r="K373" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="L373" t="s">
+        <v>2091</v>
+      </c>
+      <c r="M373" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="O373" s="98" t="s">
+        <v>2092</v>
+      </c>
+      <c r="P373" s="81" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q373" s="81" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R373" s="105"/>
+      <c r="U373" s="2"/>
+      <c r="AC373" s="105"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Valid property styles are &quot;element&quot;, &quot;attribute&quot;, or &quot;abstract&quot;.  Leave the cell blank to use the default value &quot;element&quot;." promptTitle="Property Style" prompt="- &quot;element&quot; or blank (default) - Represents a typical NIEM property._x000a_- &quot;abstract&quot; - Used to create a substitution group_x000a_- &quot;attribute&quot; - Use sparingly, if at all; for values tightly-coupled to an element." sqref="W373:W1048576 V2:V241 V243:V372" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Valid property styles are &quot;element&quot;, &quot;attribute&quot;, or &quot;abstract&quot;.  Leave the cell blank to use the default value &quot;element&quot;." promptTitle="Property Style" prompt="- &quot;element&quot; or blank (default) - Represents a typical NIEM property._x000a_- &quot;abstract&quot; - Used to create a substitution group_x000a_- &quot;attribute&quot; - Use sparingly, if at all; for values tightly-coupled to an element." sqref="V243:V373 V2:V241 W374:W1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"element,attribute,abstract"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
@@ -27107,17 +27166,17 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="137.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="137.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="63.95">
+    <row r="1" spans="1:21" ht="64">
       <c r="A1" s="3" t="s">
         <v>326</v>
       </c>
@@ -27845,24 +27904,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="96.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" customWidth="1"/>
-    <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="96.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5" customWidth="1"/>
+    <col min="13" max="13" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="63.95">
+    <row r="1" spans="1:23" ht="64">
       <c r="A1" s="3" t="s">
         <v>1824</v>
       </c>
@@ -28573,21 +28632,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="112" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="112" customWidth="1"/>
     <col min="2" max="2" width="196" style="112" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="112"/>
+    <col min="3" max="16384" width="10.83203125" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001">
+    <row r="1" spans="1:2" ht="20">
       <c r="A1" s="110"/>
       <c r="B1" s="111" t="s">
         <v>1954</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>1955</v>
       </c>
       <c r="B2" s="113" t="s">
@@ -28595,35 +28654,35 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="113" t="s">
         <v>1957</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="113" t="s">
         <v>1958</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="113" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="113" t="s">
         <v>1960</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="123"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="109"/>
     </row>
-    <row r="8" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A8" s="121" t="s">
+    <row r="8" spans="1:2" ht="16" customHeight="1">
+      <c r="A8" s="122" t="s">
         <v>1961</v>
       </c>
       <c r="B8" s="109" t="s">
@@ -28631,137 +28690,137 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="109" t="s">
         <v>1963</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="109" t="s">
         <v>1964</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="109" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="109"/>
     </row>
-    <row r="13" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:2" ht="16" customHeight="1">
+      <c r="A13" s="122" t="s">
         <v>1966</v>
       </c>
       <c r="B13" s="109" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.100000000000001">
-      <c r="A14" s="122"/>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14" s="123"/>
       <c r="B14" s="109" t="s">
         <v>1968</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.100000000000001">
-      <c r="A15" s="122"/>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="123"/>
       <c r="B15" s="109" t="s">
         <v>1969</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.100000000000001">
-      <c r="A16" s="122"/>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="123"/>
       <c r="B16" s="109" t="s">
         <v>1970</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.100000000000001">
-      <c r="A17" s="122"/>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17" s="123"/>
       <c r="B17" s="109" t="s">
         <v>1971</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="113" t="s">
         <v>1972</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="122"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="113" t="s">
         <v>1973</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="122"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="113" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.100000000000001">
-      <c r="A21" s="122"/>
+    <row r="21" spans="1:2" ht="17">
+      <c r="A21" s="123"/>
       <c r="B21" s="109" t="s">
         <v>1975</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.100000000000001">
-      <c r="A22" s="122"/>
+    <row r="22" spans="1:2" ht="17">
+      <c r="A22" s="123"/>
       <c r="B22" s="109" t="s">
         <v>1976</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="122"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="113" t="s">
         <v>1977</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="122"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="113" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.100000000000001">
-      <c r="A25" s="122"/>
+    <row r="25" spans="1:2" ht="17">
+      <c r="A25" s="123"/>
       <c r="B25" s="109" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.100000000000001">
-      <c r="A26" s="122"/>
+    <row r="26" spans="1:2" ht="17">
+      <c r="A26" s="123"/>
       <c r="B26" s="109" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.100000000000001">
-      <c r="A27" s="122"/>
+    <row r="27" spans="1:2" ht="17">
+      <c r="A27" s="123"/>
       <c r="B27" s="109" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.100000000000001">
-      <c r="A28" s="122"/>
+    <row r="28" spans="1:2" ht="17">
+      <c r="A28" s="123"/>
       <c r="B28" s="109" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="122"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="112" t="s">
         <v>1960</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="123"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="109"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="122" t="s">
         <v>1983</v>
       </c>
       <c r="B31" s="113" t="s">
@@ -28769,107 +28828,107 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="122"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="113" t="s">
         <v>1985</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="122"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="113" t="s">
         <v>1970</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="122"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="112" t="s">
         <v>1969</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="122"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="113" t="s">
         <v>1986</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="122"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="113" t="s">
         <v>1971</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="122"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="113" t="s">
         <v>1972</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="122"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="113" t="s">
         <v>1974</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="122"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="113" t="s">
         <v>1987</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.100000000000001">
-      <c r="A40" s="122"/>
+    <row r="40" spans="1:2" ht="17">
+      <c r="A40" s="123"/>
       <c r="B40" s="109" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.100000000000001">
-      <c r="A41" s="122"/>
+    <row r="41" spans="1:2" ht="17">
+      <c r="A41" s="123"/>
       <c r="B41" s="109" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.100000000000001">
-      <c r="A42" s="122"/>
+    <row r="42" spans="1:2" ht="17">
+      <c r="A42" s="123"/>
       <c r="B42" s="109" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.100000000000001">
-      <c r="A43" s="122"/>
+    <row r="43" spans="1:2" ht="17">
+      <c r="A43" s="123"/>
       <c r="B43" s="109" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.100000000000001">
-      <c r="A44" s="122"/>
+    <row r="44" spans="1:2" ht="17">
+      <c r="A44" s="123"/>
       <c r="B44" s="109" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.100000000000001">
-      <c r="A45" s="122"/>
+    <row r="45" spans="1:2" ht="17">
+      <c r="A45" s="123"/>
       <c r="B45" s="109" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.100000000000001">
-      <c r="A46" s="122"/>
+    <row r="46" spans="1:2" ht="17">
+      <c r="A46" s="123"/>
       <c r="B46" s="109" t="s">
         <v>1992</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="122"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="112" t="s">
         <v>1960</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="123"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="109"/>
     </row>
-    <row r="49" spans="1:2" ht="17.100000000000001">
-      <c r="A49" s="121" t="s">
+    <row r="49" spans="1:2" ht="17">
+      <c r="A49" s="122" t="s">
         <v>1993</v>
       </c>
       <c r="B49" s="109" t="s">
@@ -28877,11 +28936,11 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="123"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="109"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="122" t="s">
         <v>1826</v>
       </c>
       <c r="B51" s="113" t="s">
@@ -28889,191 +28948,191 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="122"/>
+      <c r="A52" s="123"/>
       <c r="B52" s="113" t="s">
         <v>1996</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="122"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="113" t="s">
         <v>1997</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="122"/>
+      <c r="A54" s="123"/>
       <c r="B54" s="113" t="s">
         <v>1998</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="122"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="113" t="s">
         <v>1999</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="122"/>
+      <c r="A56" s="123"/>
       <c r="B56" s="113" t="s">
         <v>2000</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="122"/>
+      <c r="A57" s="123"/>
       <c r="B57" s="113" t="s">
         <v>2001</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="122"/>
+      <c r="A58" s="123"/>
       <c r="B58" s="113" t="s">
         <v>2002</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="122"/>
+      <c r="A59" s="123"/>
       <c r="B59" s="113" t="s">
         <v>2003</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="122"/>
+      <c r="A60" s="123"/>
       <c r="B60" s="113" t="s">
         <v>2004</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="122"/>
+      <c r="A61" s="123"/>
       <c r="B61" s="113" t="s">
         <v>2005</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="122"/>
+      <c r="A62" s="123"/>
       <c r="B62" s="113" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="122"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="113" t="s">
         <v>2007</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="122"/>
+      <c r="A64" s="123"/>
       <c r="B64" s="113" t="s">
         <v>2008</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="122"/>
+      <c r="A65" s="123"/>
       <c r="B65" s="113" t="s">
         <v>2009</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="122"/>
+      <c r="A66" s="123"/>
       <c r="B66" s="113" t="s">
         <v>2010</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="122"/>
+      <c r="A67" s="123"/>
       <c r="B67" s="113" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.100000000000001">
-      <c r="A68" s="122"/>
+    <row r="68" spans="1:2" ht="17">
+      <c r="A68" s="123"/>
       <c r="B68" s="109" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.100000000000001">
-      <c r="A69" s="122"/>
+    <row r="69" spans="1:2" ht="17">
+      <c r="A69" s="123"/>
       <c r="B69" s="109" t="s">
         <v>2013</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.100000000000001">
-      <c r="A70" s="122"/>
+    <row r="70" spans="1:2" ht="17">
+      <c r="A70" s="123"/>
       <c r="B70" s="109" t="s">
         <v>2014</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="51">
-      <c r="A71" s="122"/>
+      <c r="A71" s="123"/>
       <c r="B71" s="109" t="s">
         <v>2015</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="122"/>
+      <c r="A72" s="123"/>
       <c r="B72" s="113" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.100000000000001">
-      <c r="A73" s="122"/>
+    <row r="73" spans="1:2" ht="17">
+      <c r="A73" s="123"/>
       <c r="B73" s="109" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.100000000000001">
-      <c r="A74" s="122"/>
+    <row r="74" spans="1:2" ht="17">
+      <c r="A74" s="123"/>
       <c r="B74" s="109" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.100000000000001">
-      <c r="A75" s="122"/>
+    <row r="75" spans="1:2" ht="17">
+      <c r="A75" s="123"/>
       <c r="B75" s="109" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.100000000000001">
-      <c r="A76" s="122"/>
+    <row r="76" spans="1:2" ht="17">
+      <c r="A76" s="123"/>
       <c r="B76" s="109" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17.100000000000001">
-      <c r="A77" s="122"/>
+    <row r="77" spans="1:2" ht="17">
+      <c r="A77" s="123"/>
       <c r="B77" s="109" t="s">
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.100000000000001">
-      <c r="A78" s="122"/>
+    <row r="78" spans="1:2" ht="17">
+      <c r="A78" s="123"/>
       <c r="B78" s="109" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17.100000000000001">
-      <c r="A79" s="122"/>
+    <row r="79" spans="1:2" ht="17">
+      <c r="A79" s="123"/>
       <c r="B79" s="109" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17.100000000000001">
-      <c r="A80" s="122"/>
+    <row r="80" spans="1:2" ht="17">
+      <c r="A80" s="123"/>
       <c r="B80" s="109" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.100000000000001">
-      <c r="A81" s="122"/>
+    <row r="81" spans="1:2" ht="17">
+      <c r="A81" s="123"/>
       <c r="B81" s="109" t="s">
         <v>2025</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="123"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="109"/>
     </row>
-    <row r="83" spans="1:2" ht="17.100000000000001">
-      <c r="A83" s="121" t="s">
+    <row r="83" spans="1:2" ht="17">
+      <c r="A83" s="122" t="s">
         <v>2026</v>
       </c>
       <c r="B83" s="109" t="s">
@@ -29081,223 +29140,223 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="122"/>
+      <c r="A84" s="123"/>
       <c r="B84" s="113" t="s">
         <v>2028</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="122"/>
+      <c r="A85" s="123"/>
       <c r="B85" s="113" t="s">
         <v>2029</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="122"/>
+      <c r="A86" s="123"/>
       <c r="B86" s="113" t="s">
         <v>2030</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="122"/>
+      <c r="A87" s="123"/>
       <c r="B87" s="113" t="s">
         <v>2031</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="122"/>
+      <c r="A88" s="123"/>
       <c r="B88" s="113" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17.100000000000001">
-      <c r="A89" s="122"/>
+    <row r="89" spans="1:2" ht="17">
+      <c r="A89" s="123"/>
       <c r="B89" s="109" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.100000000000001">
-      <c r="A90" s="122"/>
+    <row r="90" spans="1:2" ht="17">
+      <c r="A90" s="123"/>
       <c r="B90" s="109" t="s">
         <v>2034</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="123"/>
+      <c r="A91" s="124"/>
       <c r="B91" s="109"/>
     </row>
-    <row r="92" spans="1:2" ht="17.100000000000001">
-      <c r="A92" s="124" t="s">
+    <row r="92" spans="1:2" ht="17">
+      <c r="A92" s="125" t="s">
         <v>1417</v>
       </c>
       <c r="B92" s="109" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17.100000000000001">
-      <c r="A93" s="125"/>
+    <row r="93" spans="1:2" ht="17">
+      <c r="A93" s="126"/>
       <c r="B93" s="109" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17.100000000000001">
-      <c r="A94" s="125"/>
+    <row r="94" spans="1:2" ht="17">
+      <c r="A94" s="126"/>
       <c r="B94" s="109" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17.100000000000001">
-      <c r="A95" s="125"/>
+    <row r="95" spans="1:2" ht="17">
+      <c r="A95" s="126"/>
       <c r="B95" s="109" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17.100000000000001">
-      <c r="A96" s="125"/>
+    <row r="96" spans="1:2" ht="17">
+      <c r="A96" s="126"/>
       <c r="B96" s="109" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17.100000000000001">
-      <c r="A97" s="125"/>
+    <row r="97" spans="1:2" ht="17">
+      <c r="A97" s="126"/>
       <c r="B97" s="109" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17.100000000000001">
-      <c r="A98" s="125"/>
+    <row r="98" spans="1:2" ht="17">
+      <c r="A98" s="126"/>
       <c r="B98" s="109" t="s">
         <v>2039</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="125"/>
+      <c r="A99" s="126"/>
       <c r="B99" s="113" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17.100000000000001">
-      <c r="A100" s="125"/>
+    <row r="100" spans="1:2" ht="17">
+      <c r="A100" s="126"/>
       <c r="B100" s="109" t="s">
         <v>2032</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="125"/>
+      <c r="A101" s="126"/>
       <c r="B101" s="113" t="s">
         <v>2041</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="125"/>
+      <c r="A102" s="126"/>
       <c r="B102" s="113" t="s">
         <v>2042</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="125"/>
+      <c r="A103" s="126"/>
       <c r="B103" s="113" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17.100000000000001">
-      <c r="A104" s="125"/>
+    <row r="104" spans="1:2" ht="17">
+      <c r="A104" s="126"/>
       <c r="B104" s="109" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17.100000000000001">
-      <c r="A105" s="125"/>
+    <row r="105" spans="1:2" ht="17">
+      <c r="A105" s="126"/>
       <c r="B105" s="109" t="s">
         <v>2045</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="125"/>
+      <c r="A106" s="126"/>
       <c r="B106" s="113" t="s">
         <v>2046</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="125"/>
+      <c r="A107" s="126"/>
       <c r="B107" s="113" t="s">
         <v>2047</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17.100000000000001">
-      <c r="A108" s="125"/>
+    <row r="108" spans="1:2" ht="17">
+      <c r="A108" s="126"/>
       <c r="B108" s="109" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17.100000000000001">
-      <c r="A109" s="125"/>
+    <row r="109" spans="1:2" ht="17">
+      <c r="A109" s="126"/>
       <c r="B109" s="109" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17.100000000000001">
-      <c r="A110" s="125"/>
+    <row r="110" spans="1:2" ht="17">
+      <c r="A110" s="126"/>
       <c r="B110" s="109" t="s">
         <v>2050</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="17.100000000000001">
-      <c r="A111" s="125"/>
+    <row r="111" spans="1:2" ht="17">
+      <c r="A111" s="126"/>
       <c r="B111" s="109" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="125"/>
+    <row r="112" spans="1:2" ht="20" customHeight="1">
+      <c r="A112" s="126"/>
       <c r="B112" s="109" t="s">
         <v>2052</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17.100000000000001">
-      <c r="A113" s="125"/>
+    <row r="113" spans="1:2" ht="17">
+      <c r="A113" s="126"/>
       <c r="B113" s="109" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="17.100000000000001">
-      <c r="A114" s="125"/>
+    <row r="114" spans="1:2" ht="17">
+      <c r="A114" s="126"/>
       <c r="B114" s="109" t="s">
         <v>2054</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" customHeight="1">
-      <c r="A115" s="125"/>
+      <c r="A115" s="126"/>
       <c r="B115" s="109" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="17.100000000000001">
-      <c r="A116" s="125"/>
+    <row r="116" spans="1:2" ht="17">
+      <c r="A116" s="126"/>
       <c r="B116" s="109" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="17.100000000000001">
-      <c r="A117" s="125"/>
+    <row r="117" spans="1:2" ht="17">
+      <c r="A117" s="126"/>
       <c r="B117" s="109" t="s">
         <v>2057</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="17.100000000000001">
-      <c r="A118" s="125"/>
+    <row r="118" spans="1:2" ht="17">
+      <c r="A118" s="126"/>
       <c r="B118" s="109" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="33.950000000000003">
-      <c r="A119" s="125"/>
+    <row r="119" spans="1:2" ht="34">
+      <c r="A119" s="126"/>
       <c r="B119" s="109" t="s">
         <v>2059</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="33.950000000000003">
-      <c r="A120" s="126"/>
+    <row r="120" spans="1:2" ht="34">
+      <c r="A120" s="127"/>
       <c r="B120" s="109" t="s">
         <v>2060</v>
       </c>
@@ -29326,23 +29385,23 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="29.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="29.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="45.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="45.42578125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="29.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="29.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="45.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="45.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="56" customFormat="1" ht="32.1">
+    <row r="1" spans="1:14" s="56" customFormat="1" ht="32">
       <c r="A1" s="3" t="s">
         <v>325</v>
       </c>
@@ -29418,28 +29477,28 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="43.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2"/>
+    <col min="13" max="13" width="30.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="17" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="17" customWidth="1"/>
+    <col min="16" max="16" width="43.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="56" customFormat="1" ht="32.1">
+    <row r="1" spans="1:17" s="56" customFormat="1" ht="32">
       <c r="A1" s="10" t="s">
         <v>2068</v>
       </c>
@@ -29517,6 +29576,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee7d25ce-443e-4f8a-a748-4259b6f1626e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="129c8279-1928-4e9e-bf04-a22cc9c6a884" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B27AFAFD56B51D40A0636D2EDDB429E9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13d31266acc58ebd7ba55a153b38d026">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="129c8279-1928-4e9e-bf04-a22cc9c6a884" xmlns:ns3="ee7d25ce-443e-4f8a-a748-4259b6f1626e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48ed0b125055c886dae4c0216e3655b5" ns2:_="" ns3:_="">
     <xsd:import namespace="129c8279-1928-4e9e-bf04-a22cc9c6a884"/>
@@ -29745,17 +29815,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee7d25ce-443e-4f8a-a748-4259b6f1626e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="129c8279-1928-4e9e-bf04-a22cc9c6a884" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29766,13 +29825,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80AF805D-BBAB-438F-A2B3-36BD6E56A636}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA070F5E-46B8-4CF5-94C0-070A58B7172E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee7d25ce-443e-4f8a-a748-4259b6f1626e"/>
+    <ds:schemaRef ds:uri="129c8279-1928-4e9e-bf04-a22cc9c6a884"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA070F5E-46B8-4CF5-94C0-070A58B7172E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80AF805D-BBAB-438F-A2B3-36BD6E56A636}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="129c8279-1928-4e9e-bf04-a22cc9c6a884"/>
+    <ds:schemaRef ds:uri="ee7d25ce-443e-4f8a-a748-4259b6f1626e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B6F3CE9-A837-46EA-9FB3-9103F3863ECD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B6F3CE9-A837-46EA-9FB3-9103F3863ECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>